--- a/data/hotels_by_city/Dallas/Dallas_shard_224.xlsx
+++ b/data/hotels_by_city/Dallas/Dallas_shard_224.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="259">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="285">
   <si>
     <t>STR#</t>
   </si>
@@ -147,6 +147,9 @@
     <t>response_text</t>
   </si>
   <si>
+    <t>Wanda C</t>
+  </si>
+  <si>
     <t>05/29/2018</t>
   </si>
   <si>
@@ -186,6 +189,9 @@
     <t>Booked a guaranteed reservation with a pre-payment.  Arrived at the hotel office at 9:15 p.m. which is supposed to be open until 11 p.m. and it was closed.  I called the number on the door and was talked to by a very rude individual.  No room, no refund.  This is the single worst hotel experience I have ever had.More</t>
   </si>
   <si>
+    <t>Stefani Z</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d543081-r495867351-Extended_Stay_America_Dallas_Vantage_Point_Dr-Dallas_Texas.html</t>
   </si>
   <si>
@@ -216,6 +222,9 @@
     <t>Great place to stay even long term. Property has great lighting at night and security patrol. Plenty of areas to walk your pet. Staff is courteous and helpful. Perfect home away from home. Great location.More</t>
   </si>
   <si>
+    <t>Traci C</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d543081-r572305821-Extended_Stay_America_Dallas_Vantage_Point_Dr-Dallas_Texas.html</t>
   </si>
   <si>
@@ -243,6 +252,9 @@
     <t>Front desk person claimed to have contacted hotels.com to inform them that they were completely full and they would need to relocate me. Well she's a liar because I didn't reserve via hotels.com and they would have informed her right then and there that they had no guest reservation with my name on it. So I show up to check in after attending a funeral viewing with my toddler and newborn and it's freezing outside due to drastic changes in the weather. If she had done her job correctly, I never would have shown up at the property due to being relocated in a timely manner. Mid-range pricing for a budget hotel. My Mom and brother we're actually able to stay at this location that night and there were several issues with the lack of cleanliness, poor quality of bedding, and a lot of suspicious activity on property.More</t>
   </si>
   <si>
+    <t>603francisp</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d543081-r562049463-Extended_Stay_America_Dallas_Vantage_Point_Dr-Dallas_Texas.html</t>
   </si>
   <si>
@@ -273,6 +285,9 @@
     <t>This Dallas hotel is conveniently located but the poor and unprofessional level of service more than cancelled out any advantages of location. Our experience was very grim after requiring moves to three different rooms before finding one where things actually worked. Expect excuses, not results from the staff. This one rates right up (or down) there with Alfred Hitchcock's Bates Motel.More</t>
   </si>
   <si>
+    <t>crystalsX8763WO</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d543081-r553302155-Extended_Stay_America_Dallas_Vantage_Point_Dr-Dallas_Texas.html</t>
   </si>
   <si>
@@ -300,6 +315,9 @@
     <t>Don't do it. Red head manager stole my deposit 2 times. Then bothered any guest I had and never had any grab and go breakfast. Just coffee.This is worst of worst when it comes to fleabag. Manager  being main probMore</t>
   </si>
   <si>
+    <t>lashandab2018</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d543081-r551208196-Extended_Stay_America_Dallas_Vantage_Point_Dr-Dallas_Texas.html</t>
   </si>
   <si>
@@ -327,6 +345,9 @@
     <t>Staff very unprofessional. I have never seen anything like it. I was treated poorly and I was lied on several times and told that my voice didn't matter. I felt dehumanized. I wouldn't recommend this place to my worst enemy.More</t>
   </si>
   <si>
+    <t>Bobbi S</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d543081-r542461970-Extended_Stay_America_Dallas_Vantage_Point_Dr-Dallas_Texas.html</t>
   </si>
   <si>
@@ -354,6 +375,9 @@
     <t>I stayed for 2 nights and the room was clean and staff was very courteous. I would recommend staying for any length of time. I called for reservation and put my credit card on to hold my room. When I got there, check-in was easy and quick and I was able to get to my room and relax within a short period of time.More</t>
   </si>
   <si>
+    <t>805vivekd</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d543081-r541706630-Extended_Stay_America_Dallas_Vantage_Point_Dr-Dallas_Texas.html</t>
   </si>
   <si>
@@ -378,6 +402,9 @@
     <t>Good experience, value for the money we pay. Hotel staffs are friendly and good place to work or relax. I am staying here for the second time and absolutely happy with the hotel I would recommend this hotel for staying extended periodMore</t>
   </si>
   <si>
+    <t>daniela e</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d543081-r536090910-Extended_Stay_America_Dallas_Vantage_Point_Dr-Dallas_Texas.html</t>
   </si>
   <si>
@@ -405,6 +432,9 @@
     <t>Extra super DIRTY, the staff is really UNKIND, people at McDonalds treat you better, they ALWAYS have a reason to say NO. Please do not stay here, please don't do it, i stay at hotels more than 170 nights per year, and this is by far the WORS of the WORST. More</t>
   </si>
   <si>
+    <t>chelsiaj2017</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d543081-r535379014-Extended_Stay_America_Dallas_Vantage_Point_Dr-Dallas_Texas.html</t>
   </si>
   <si>
@@ -426,6 +456,9 @@
     <t>Very rude staff and receptionist .ciuldnt actuvate our card right twice so we walked back and fourth and racism was in the air . I decided to advise staff I wanted to move to a different location due to all the hassle and non care of her mistakes .due to staff want be going backMore</t>
   </si>
   <si>
+    <t>rajeanah</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d543081-r533589651-Extended_Stay_America_Dallas_Vantage_Point_Dr-Dallas_Texas.html</t>
   </si>
   <si>
@@ -447,6 +480,9 @@
     <t>This location needs to be more trained not sure why they didn't have a breakfast like I've had it other Extended Stay Americas they did not have a table in the unit for me to eat in my companion the wifi did not work properly you cannot get the staff member who was training who was alone to properly assist youMore</t>
   </si>
   <si>
+    <t>Dollar B</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d543081-r522066714-Extended_Stay_America_Dallas_Vantage_Point_Dr-Dallas_Texas.html</t>
   </si>
   <si>
@@ -471,6 +507,9 @@
     <t>Tammy and Keisha did a great job in helping me save money. They went an extra mile and put a smile on my face. Very jubilant! This is a comfortable and quiet hotel convenient to restaurant and shopping area. I'd highly recommended this location for your best interested. Very comfortable! :-)More</t>
   </si>
   <si>
+    <t>H7321UPbriant</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d543081-r507080437-Extended_Stay_America_Dallas_Vantage_Point_Dr-Dallas_Texas.html</t>
   </si>
   <si>
@@ -498,6 +537,9 @@
     <t>Can't beat the location, convenient to shopping, restaurants, DART rail. The room was adequate for what you pay. TV, full size refrigerator, cooktop stove, small microwave. Bed was clean and comfortable. Noise level surprisingly tolerable, even on weekends. Weekly room cleaning is sporadic due to staff shortages according to front desk. Biggest complaint: floors very dirty. Feet would be black after walking around a few hours barefoot. Wear socks and wash them regularly!More</t>
   </si>
   <si>
+    <t>mayta643</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d543081-r505214662-Extended_Stay_America_Dallas_Vantage_Point_Dr-Dallas_Texas.html</t>
   </si>
   <si>
@@ -522,6 +564,9 @@
     <t>Definitely will never stay here again. The staff there are so unprofessional and rude. To make matters work, there were bugs in the room. Just stay away from this hotel. The pictures look decent from the outside but it's totally different when you get inside.More</t>
   </si>
   <si>
+    <t>75manishkumars</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d543081-r502089832-Extended_Stay_America_Dallas_Vantage_Point_Dr-Dallas_Texas.html</t>
   </si>
   <si>
@@ -546,6 +591,9 @@
     <t>Room is not clean as not expected. Ants in rooms no one is came after complaint. Persons are good on desk but I don't know why they are not taking seriously. Cabinet is also not cleaned. Bad is good, Ac is also working only problem is cleaning.More</t>
   </si>
   <si>
+    <t>LYDIA S</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d543081-r500401534-Extended_Stay_America_Dallas_Vantage_Point_Dr-Dallas_Texas.html</t>
   </si>
   <si>
@@ -570,6 +618,9 @@
     <t>We were two families in two rooms.  Our room had a leaky bathroom and dirty bed sheets.  Since I didn't see these things before I unpacked, I decided to stay and just request another bed sheet.  But the other family ended up changing rooms 3 times.  They saw it all... roaches, mice feces... dirty sheets... they gave them a room smaller than the one booked.  We weren't impressed, to say the least.More</t>
   </si>
   <si>
+    <t>341mistyg</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d543081-r500255405-Extended_Stay_America_Dallas_Vantage_Point_Dr-Dallas_Texas.html</t>
   </si>
   <si>
@@ -585,6 +636,9 @@
     <t>Mattress was smelling line urine, sheets didn't fit properly! Air conditioning messed up.  Staff was friendly but didn't know the area.   I sadly don't recommend this place.  I won't be back. mama780233@yahoo.comMore</t>
   </si>
   <si>
+    <t>francesg382</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d543081-r500104893-Extended_Stay_America_Dallas_Vantage_Point_Dr-Dallas_Texas.html</t>
   </si>
   <si>
@@ -603,6 +657,9 @@
     <t>I needed a new frig and one was swapped out for a new. The staff are approachable and professional everytime I inquired about something.  And the property is kept up and trash  is always picked up never left in bins very long.More</t>
   </si>
   <si>
+    <t>837emmanuelt</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d543081-r498441824-Extended_Stay_America_Dallas_Vantage_Point_Dr-Dallas_Texas.html</t>
   </si>
   <si>
@@ -627,6 +684,9 @@
     <t>Okay for value BUT very poor attention to cleanness with staff too aloof. The staff should communicate more without prompting with guests. The location is very good relative to my reason and close to many eateries as well most parts of Dallas.More</t>
   </si>
   <si>
+    <t>tgrecofl</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d543081-r493536387-Extended_Stay_America_Dallas_Vantage_Point_Dr-Dallas_Texas.html</t>
   </si>
   <si>
@@ -651,6 +711,9 @@
     <t>If you are looking for a place to stay at a good price and you don't want to rent a car or take Ubers all the time, this hotel is near the LBJ Central train station and you can take the train to many places around the Dallas area.More</t>
   </si>
   <si>
+    <t>Jason S</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d543081-r484756858-Extended_Stay_America_Dallas_Vantage_Point_Dr-Dallas_Texas.html</t>
   </si>
   <si>
@@ -678,6 +741,9 @@
     <t>I enjoyed my stay here EXCEPT one thing.On Friday night I had a unexpected guest enter my room with there key.  It was my EX.  He stopped at the front desk and told the guy that he was me and gave him my room number and told him that he left his key in his room and need a new one.  And without checking ID, or following the company police he issued him a key to my room.  WOW. I am furious so I get that anyone can just walk up to the front and get a key to anyone's room.   BEWAREMore</t>
   </si>
   <si>
+    <t>Alan G</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d543081-r467902478-Extended_Stay_America_Dallas_Vantage_Point_Dr-Dallas_Texas.html</t>
   </si>
   <si>
@@ -705,6 +771,9 @@
     <t>Everyone is very attentive. Concerned that your stay feels like home. Corner suites are large and sunny. Corner suites are large and sunny. Marisa, Bria &amp; Derek very helpful. Housekeeping very meticulous.More</t>
   </si>
   <si>
+    <t>Dottie1973</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d543081-r467824581-Extended_Stay_America_Dallas_Vantage_Point_Dr-Dallas_Texas.html</t>
   </si>
   <si>
@@ -729,6 +798,9 @@
     <t>Marisa and all of the staff at this location are always accommodating and go out of their way to make sure my needs are met. I have been here for quite a while and truly feel like I'm home. The location makes a visit so easy to access any where in Dallas.More</t>
   </si>
   <si>
+    <t>jeremyleake</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d543081-r462979763-Extended_Stay_America_Dallas_Vantage_Point_Dr-Dallas_Texas.html</t>
   </si>
   <si>
@@ -744,6 +816,9 @@
     <t>very nice place to stay and quite. I would come here again and again. staff was great to me and provided anything I asked for . beds were nice and soft and slept like a baby and very much injoy my stay there thank you so much.</t>
   </si>
   <si>
+    <t>373rebeccak</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d543081-r456163571-Extended_Stay_America_Dallas_Vantage_Point_Dr-Dallas_Texas.html</t>
   </si>
   <si>
@@ -769,6 +844,9 @@
   </si>
   <si>
     <t>We were originally booked in the one at 12270 Greenville which is across the street from this one. NEVER will stay there again. Pan handlers in parking lot, homeless looking people entering the lobby every morning helping themselves to ALL the breakfast snacks and coffee meant for the guests. booked a smoking room get there and the hotel is being renovated and converted to non smoking- last night was final straw,,, horrible epoxy like smell filling the hallway and coming into our room on 2nd floor.  Burned eyes, and throat- told to call guest relations ourselves to find another hotel  Not a nice place.  This is right across the street and there is security, no pan handlers, nice place.More</t>
+  </si>
+  <si>
+    <t>Larie L</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d543081-r455208871-Extended_Stay_America_Dallas_Vantage_Point_Dr-Dallas_Texas.html</t>
@@ -1297,43 +1375,47 @@
       <c r="A2" t="n">
         <v>36023</v>
       </c>
-      <c r="B2" t="s"/>
-      <c r="C2" t="s"/>
+      <c r="B2" t="n">
+        <v>65391</v>
+      </c>
+      <c r="C2" t="s">
+        <v>43</v>
+      </c>
       <c r="D2" t="n">
         <v>1</v>
       </c>
       <c r="E2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="G2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I2" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="J2" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="L2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="M2" t="n">
         <v>1</v>
       </c>
       <c r="N2" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="O2" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="P2" t="s"/>
       <c r="Q2" t="s"/>
@@ -1345,56 +1427,60 @@
         <v>0</v>
       </c>
       <c r="W2" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="X2" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="Y2" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
         <v>36023</v>
       </c>
-      <c r="B3" t="s"/>
-      <c r="C3" t="s"/>
+      <c r="B3" t="n">
+        <v>136128</v>
+      </c>
+      <c r="C3" t="s">
+        <v>57</v>
+      </c>
       <c r="D3" t="n">
         <v>2</v>
       </c>
       <c r="E3" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F3" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="G3" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H3" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I3" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="J3" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="K3" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="L3" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="M3" t="n">
         <v>5</v>
       </c>
       <c r="N3" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="O3" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="P3" t="n">
         <v>5</v>
@@ -1416,56 +1502,60 @@
         <v>0</v>
       </c>
       <c r="W3" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="X3" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="Y3" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
         <v>36023</v>
       </c>
-      <c r="B4" t="s"/>
-      <c r="C4" t="s"/>
+      <c r="B4" t="n">
+        <v>136129</v>
+      </c>
+      <c r="C4" t="s">
+        <v>68</v>
+      </c>
       <c r="D4" t="n">
         <v>3</v>
       </c>
       <c r="E4" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F4" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="G4" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H4" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I4" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="J4" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="K4" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="L4" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="M4" t="n">
         <v>1</v>
       </c>
       <c r="N4" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="O4" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="P4" t="s"/>
       <c r="Q4" t="n">
@@ -1483,56 +1573,60 @@
         <v>0</v>
       </c>
       <c r="W4" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="X4" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="Y4" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
         <v>36023</v>
       </c>
-      <c r="B5" t="s"/>
-      <c r="C5" t="s"/>
+      <c r="B5" t="n">
+        <v>136130</v>
+      </c>
+      <c r="C5" t="s">
+        <v>78</v>
+      </c>
       <c r="D5" t="n">
         <v>4</v>
       </c>
       <c r="E5" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F5" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="G5" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H5" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I5" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="J5" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="K5" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="L5" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="M5" t="n">
         <v>1</v>
       </c>
       <c r="N5" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="O5" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="P5" t="n">
         <v>1</v>
@@ -1554,56 +1648,60 @@
         <v>0</v>
       </c>
       <c r="W5" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="X5" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="Y5" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
         <v>36023</v>
       </c>
-      <c r="B6" t="s"/>
-      <c r="C6" t="s"/>
+      <c r="B6" t="n">
+        <v>136131</v>
+      </c>
+      <c r="C6" t="s">
+        <v>89</v>
+      </c>
       <c r="D6" t="n">
         <v>5</v>
       </c>
       <c r="E6" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F6" t="s">
-        <v>85</v>
+        <v>90</v>
       </c>
       <c r="G6" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H6" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I6" t="s">
-        <v>86</v>
+        <v>91</v>
       </c>
       <c r="J6" t="s">
-        <v>87</v>
+        <v>92</v>
       </c>
       <c r="K6" t="s">
-        <v>88</v>
+        <v>93</v>
       </c>
       <c r="L6" t="s">
-        <v>89</v>
+        <v>94</v>
       </c>
       <c r="M6" t="n">
         <v>1</v>
       </c>
       <c r="N6" t="s">
-        <v>90</v>
+        <v>95</v>
       </c>
       <c r="O6" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="P6" t="n">
         <v>3</v>
@@ -1625,56 +1723,60 @@
         <v>0</v>
       </c>
       <c r="W6" t="s">
-        <v>91</v>
+        <v>96</v>
       </c>
       <c r="X6" t="s">
-        <v>92</v>
+        <v>97</v>
       </c>
       <c r="Y6" t="s">
-        <v>93</v>
+        <v>98</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
         <v>36023</v>
       </c>
-      <c r="B7" t="s"/>
-      <c r="C7" t="s"/>
+      <c r="B7" t="n">
+        <v>136132</v>
+      </c>
+      <c r="C7" t="s">
+        <v>99</v>
+      </c>
       <c r="D7" t="n">
         <v>6</v>
       </c>
       <c r="E7" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F7" t="s">
-        <v>94</v>
+        <v>100</v>
       </c>
       <c r="G7" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H7" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I7" t="s">
-        <v>95</v>
+        <v>101</v>
       </c>
       <c r="J7" t="s">
-        <v>96</v>
+        <v>102</v>
       </c>
       <c r="K7" t="s">
-        <v>97</v>
+        <v>103</v>
       </c>
       <c r="L7" t="s">
-        <v>98</v>
+        <v>104</v>
       </c>
       <c r="M7" t="n">
         <v>1</v>
       </c>
       <c r="N7" t="s">
-        <v>99</v>
+        <v>105</v>
       </c>
       <c r="O7" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="P7" t="n">
         <v>1</v>
@@ -1696,56 +1798,60 @@
         <v>0</v>
       </c>
       <c r="W7" t="s">
-        <v>100</v>
+        <v>106</v>
       </c>
       <c r="X7" t="s">
-        <v>101</v>
+        <v>107</v>
       </c>
       <c r="Y7" t="s">
-        <v>102</v>
+        <v>108</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
         <v>36023</v>
       </c>
-      <c r="B8" t="s"/>
-      <c r="C8" t="s"/>
+      <c r="B8" t="n">
+        <v>18574</v>
+      </c>
+      <c r="C8" t="s">
+        <v>109</v>
+      </c>
       <c r="D8" t="n">
         <v>7</v>
       </c>
       <c r="E8" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F8" t="s">
-        <v>103</v>
+        <v>110</v>
       </c>
       <c r="G8" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H8" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I8" t="s">
-        <v>104</v>
+        <v>111</v>
       </c>
       <c r="J8" t="s">
-        <v>105</v>
+        <v>112</v>
       </c>
       <c r="K8" t="s">
-        <v>106</v>
+        <v>113</v>
       </c>
       <c r="L8" t="s">
-        <v>107</v>
+        <v>114</v>
       </c>
       <c r="M8" t="n">
         <v>5</v>
       </c>
       <c r="N8" t="s">
-        <v>108</v>
+        <v>115</v>
       </c>
       <c r="O8" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="P8" t="s"/>
       <c r="Q8" t="s"/>
@@ -1761,56 +1867,60 @@
         <v>0</v>
       </c>
       <c r="W8" t="s">
-        <v>109</v>
+        <v>116</v>
       </c>
       <c r="X8" t="s">
-        <v>110</v>
+        <v>117</v>
       </c>
       <c r="Y8" t="s">
-        <v>111</v>
+        <v>118</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
         <v>36023</v>
       </c>
-      <c r="B9" t="s"/>
-      <c r="C9" t="s"/>
+      <c r="B9" t="n">
+        <v>136133</v>
+      </c>
+      <c r="C9" t="s">
+        <v>119</v>
+      </c>
       <c r="D9" t="n">
         <v>8</v>
       </c>
       <c r="E9" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F9" t="s">
-        <v>112</v>
+        <v>120</v>
       </c>
       <c r="G9" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H9" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I9" t="s">
-        <v>113</v>
+        <v>121</v>
       </c>
       <c r="J9" t="s">
-        <v>114</v>
+        <v>122</v>
       </c>
       <c r="K9" t="s">
-        <v>115</v>
+        <v>123</v>
       </c>
       <c r="L9" t="s">
-        <v>116</v>
+        <v>124</v>
       </c>
       <c r="M9" t="n">
         <v>5</v>
       </c>
       <c r="N9" t="s">
-        <v>90</v>
+        <v>95</v>
       </c>
       <c r="O9" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="P9" t="n">
         <v>5</v>
@@ -1832,56 +1942,60 @@
         <v>0</v>
       </c>
       <c r="W9" t="s">
-        <v>117</v>
+        <v>125</v>
       </c>
       <c r="X9" t="s">
-        <v>118</v>
+        <v>126</v>
       </c>
       <c r="Y9" t="s">
-        <v>119</v>
+        <v>127</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
         <v>36023</v>
       </c>
-      <c r="B10" t="s"/>
-      <c r="C10" t="s"/>
+      <c r="B10" t="n">
+        <v>136134</v>
+      </c>
+      <c r="C10" t="s">
+        <v>128</v>
+      </c>
       <c r="D10" t="n">
         <v>9</v>
       </c>
       <c r="E10" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F10" t="s">
-        <v>120</v>
+        <v>129</v>
       </c>
       <c r="G10" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H10" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I10" t="s">
-        <v>121</v>
+        <v>130</v>
       </c>
       <c r="J10" t="s">
-        <v>122</v>
+        <v>131</v>
       </c>
       <c r="K10" t="s">
-        <v>123</v>
+        <v>132</v>
       </c>
       <c r="L10" t="s">
-        <v>124</v>
+        <v>133</v>
       </c>
       <c r="M10" t="n">
         <v>1</v>
       </c>
       <c r="N10" t="s">
-        <v>125</v>
+        <v>134</v>
       </c>
       <c r="O10" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="P10" t="s"/>
       <c r="Q10" t="s"/>
@@ -1893,56 +2007,60 @@
         <v>0</v>
       </c>
       <c r="W10" t="s">
-        <v>126</v>
+        <v>135</v>
       </c>
       <c r="X10" t="s">
-        <v>127</v>
+        <v>136</v>
       </c>
       <c r="Y10" t="s">
-        <v>128</v>
+        <v>137</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
         <v>36023</v>
       </c>
-      <c r="B11" t="s"/>
-      <c r="C11" t="s"/>
+      <c r="B11" t="n">
+        <v>136135</v>
+      </c>
+      <c r="C11" t="s">
+        <v>138</v>
+      </c>
       <c r="D11" t="n">
         <v>10</v>
       </c>
       <c r="E11" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F11" t="s">
-        <v>129</v>
+        <v>139</v>
       </c>
       <c r="G11" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H11" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I11" t="s">
-        <v>130</v>
+        <v>140</v>
       </c>
       <c r="J11" t="s">
-        <v>131</v>
+        <v>141</v>
       </c>
       <c r="K11" t="s">
-        <v>132</v>
+        <v>142</v>
       </c>
       <c r="L11" t="s">
-        <v>133</v>
+        <v>143</v>
       </c>
       <c r="M11" t="n">
         <v>1</v>
       </c>
       <c r="N11" t="s">
-        <v>108</v>
+        <v>115</v>
       </c>
       <c r="O11" t="s">
-        <v>134</v>
+        <v>144</v>
       </c>
       <c r="P11" t="n">
         <v>1</v>
@@ -1964,56 +2082,60 @@
         <v>0</v>
       </c>
       <c r="W11" t="s">
-        <v>126</v>
+        <v>135</v>
       </c>
       <c r="X11" t="s">
-        <v>127</v>
+        <v>136</v>
       </c>
       <c r="Y11" t="s">
-        <v>135</v>
+        <v>145</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
         <v>36023</v>
       </c>
-      <c r="B12" t="s"/>
-      <c r="C12" t="s"/>
+      <c r="B12" t="n">
+        <v>136136</v>
+      </c>
+      <c r="C12" t="s">
+        <v>146</v>
+      </c>
       <c r="D12" t="n">
         <v>11</v>
       </c>
       <c r="E12" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F12" t="s">
-        <v>136</v>
+        <v>147</v>
       </c>
       <c r="G12" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H12" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I12" t="s">
-        <v>137</v>
+        <v>148</v>
       </c>
       <c r="J12" t="s">
-        <v>138</v>
+        <v>149</v>
       </c>
       <c r="K12" t="s">
         <v>12</v>
       </c>
       <c r="L12" t="s">
-        <v>139</v>
+        <v>150</v>
       </c>
       <c r="M12" t="n">
         <v>3</v>
       </c>
       <c r="N12" t="s">
-        <v>108</v>
+        <v>115</v>
       </c>
       <c r="O12" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="P12" t="n">
         <v>3</v>
@@ -2035,56 +2157,60 @@
         <v>0</v>
       </c>
       <c r="W12" t="s">
-        <v>140</v>
+        <v>151</v>
       </c>
       <c r="X12" t="s">
-        <v>141</v>
+        <v>152</v>
       </c>
       <c r="Y12" t="s">
-        <v>142</v>
+        <v>153</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
         <v>36023</v>
       </c>
-      <c r="B13" t="s"/>
-      <c r="C13" t="s"/>
+      <c r="B13" t="n">
+        <v>136137</v>
+      </c>
+      <c r="C13" t="s">
+        <v>154</v>
+      </c>
       <c r="D13" t="n">
         <v>12</v>
       </c>
       <c r="E13" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F13" t="s">
-        <v>143</v>
+        <v>155</v>
       </c>
       <c r="G13" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H13" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I13" t="s">
-        <v>144</v>
+        <v>156</v>
       </c>
       <c r="J13" t="s">
-        <v>145</v>
+        <v>157</v>
       </c>
       <c r="K13" t="s">
-        <v>146</v>
+        <v>158</v>
       </c>
       <c r="L13" t="s">
-        <v>147</v>
+        <v>159</v>
       </c>
       <c r="M13" t="n">
         <v>5</v>
       </c>
       <c r="N13" t="s">
-        <v>125</v>
+        <v>134</v>
       </c>
       <c r="O13" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="P13" t="n">
         <v>5</v>
@@ -2100,56 +2226,60 @@
         <v>0</v>
       </c>
       <c r="W13" t="s">
-        <v>148</v>
+        <v>160</v>
       </c>
       <c r="X13" t="s">
-        <v>149</v>
+        <v>161</v>
       </c>
       <c r="Y13" t="s">
-        <v>150</v>
+        <v>162</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
         <v>36023</v>
       </c>
-      <c r="B14" t="s"/>
-      <c r="C14" t="s"/>
+      <c r="B14" t="n">
+        <v>136138</v>
+      </c>
+      <c r="C14" t="s">
+        <v>163</v>
+      </c>
       <c r="D14" t="n">
         <v>13</v>
       </c>
       <c r="E14" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F14" t="s">
-        <v>151</v>
+        <v>164</v>
       </c>
       <c r="G14" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H14" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I14" t="s">
-        <v>152</v>
+        <v>165</v>
       </c>
       <c r="J14" t="s">
-        <v>153</v>
+        <v>166</v>
       </c>
       <c r="K14" t="s">
-        <v>154</v>
+        <v>167</v>
       </c>
       <c r="L14" t="s">
-        <v>155</v>
+        <v>168</v>
       </c>
       <c r="M14" t="n">
         <v>3</v>
       </c>
       <c r="N14" t="s">
-        <v>156</v>
+        <v>169</v>
       </c>
       <c r="O14" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="P14" t="n">
         <v>4</v>
@@ -2171,56 +2301,60 @@
         <v>0</v>
       </c>
       <c r="W14" t="s">
-        <v>157</v>
+        <v>170</v>
       </c>
       <c r="X14" t="s">
-        <v>158</v>
+        <v>171</v>
       </c>
       <c r="Y14" t="s">
-        <v>159</v>
+        <v>172</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
         <v>36023</v>
       </c>
-      <c r="B15" t="s"/>
-      <c r="C15" t="s"/>
+      <c r="B15" t="n">
+        <v>136139</v>
+      </c>
+      <c r="C15" t="s">
+        <v>173</v>
+      </c>
       <c r="D15" t="n">
         <v>14</v>
       </c>
       <c r="E15" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F15" t="s">
-        <v>160</v>
+        <v>174</v>
       </c>
       <c r="G15" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H15" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I15" t="s">
-        <v>161</v>
+        <v>175</v>
       </c>
       <c r="J15" t="s">
-        <v>162</v>
+        <v>176</v>
       </c>
       <c r="K15" t="s">
-        <v>163</v>
+        <v>177</v>
       </c>
       <c r="L15" t="s">
-        <v>164</v>
+        <v>178</v>
       </c>
       <c r="M15" t="n">
         <v>1</v>
       </c>
       <c r="N15" t="s">
-        <v>156</v>
+        <v>169</v>
       </c>
       <c r="O15" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="P15" t="n">
         <v>1</v>
@@ -2242,56 +2376,60 @@
         <v>0</v>
       </c>
       <c r="W15" t="s">
-        <v>165</v>
+        <v>179</v>
       </c>
       <c r="X15" t="s">
-        <v>166</v>
+        <v>180</v>
       </c>
       <c r="Y15" t="s">
-        <v>167</v>
+        <v>181</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
         <v>36023</v>
       </c>
-      <c r="B16" t="s"/>
-      <c r="C16" t="s"/>
+      <c r="B16" t="n">
+        <v>136140</v>
+      </c>
+      <c r="C16" t="s">
+        <v>182</v>
+      </c>
       <c r="D16" t="n">
         <v>15</v>
       </c>
       <c r="E16" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F16" t="s">
-        <v>168</v>
+        <v>183</v>
       </c>
       <c r="G16" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H16" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I16" t="s">
-        <v>169</v>
+        <v>184</v>
       </c>
       <c r="J16" t="s">
-        <v>170</v>
+        <v>185</v>
       </c>
       <c r="K16" t="s">
-        <v>171</v>
+        <v>186</v>
       </c>
       <c r="L16" t="s">
-        <v>172</v>
+        <v>187</v>
       </c>
       <c r="M16" t="n">
         <v>2</v>
       </c>
       <c r="N16" t="s">
-        <v>156</v>
+        <v>169</v>
       </c>
       <c r="O16" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="P16" t="n">
         <v>2</v>
@@ -2313,56 +2451,60 @@
         <v>0</v>
       </c>
       <c r="W16" t="s">
-        <v>173</v>
+        <v>188</v>
       </c>
       <c r="X16" t="s">
-        <v>174</v>
+        <v>189</v>
       </c>
       <c r="Y16" t="s">
-        <v>175</v>
+        <v>190</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
         <v>36023</v>
       </c>
-      <c r="B17" t="s"/>
-      <c r="C17" t="s"/>
+      <c r="B17" t="n">
+        <v>136141</v>
+      </c>
+      <c r="C17" t="s">
+        <v>191</v>
+      </c>
       <c r="D17" t="n">
         <v>16</v>
       </c>
       <c r="E17" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F17" t="s">
-        <v>176</v>
+        <v>192</v>
       </c>
       <c r="G17" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H17" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I17" t="s">
-        <v>177</v>
+        <v>193</v>
       </c>
       <c r="J17" t="s">
-        <v>178</v>
+        <v>194</v>
       </c>
       <c r="K17" t="s">
-        <v>179</v>
+        <v>195</v>
       </c>
       <c r="L17" t="s">
-        <v>180</v>
+        <v>196</v>
       </c>
       <c r="M17" t="n">
         <v>1</v>
       </c>
       <c r="N17" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="O17" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="P17" t="s"/>
       <c r="Q17" t="n">
@@ -2380,56 +2522,60 @@
         <v>0</v>
       </c>
       <c r="W17" t="s">
-        <v>181</v>
+        <v>197</v>
       </c>
       <c r="X17" t="s">
-        <v>182</v>
+        <v>198</v>
       </c>
       <c r="Y17" t="s">
-        <v>183</v>
+        <v>199</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
         <v>36023</v>
       </c>
-      <c r="B18" t="s"/>
-      <c r="C18" t="s"/>
+      <c r="B18" t="n">
+        <v>136142</v>
+      </c>
+      <c r="C18" t="s">
+        <v>200</v>
+      </c>
       <c r="D18" t="n">
         <v>17</v>
       </c>
       <c r="E18" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F18" t="s">
-        <v>184</v>
+        <v>201</v>
       </c>
       <c r="G18" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H18" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I18" t="s">
-        <v>185</v>
+        <v>202</v>
       </c>
       <c r="J18" t="s">
-        <v>178</v>
+        <v>194</v>
       </c>
       <c r="K18" t="s">
-        <v>186</v>
+        <v>203</v>
       </c>
       <c r="L18" t="s">
-        <v>187</v>
+        <v>204</v>
       </c>
       <c r="M18" t="n">
         <v>1</v>
       </c>
       <c r="N18" t="s">
-        <v>156</v>
+        <v>169</v>
       </c>
       <c r="O18" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="P18" t="n">
         <v>2</v>
@@ -2451,56 +2597,60 @@
         <v>0</v>
       </c>
       <c r="W18" t="s">
-        <v>181</v>
+        <v>197</v>
       </c>
       <c r="X18" t="s">
-        <v>182</v>
+        <v>198</v>
       </c>
       <c r="Y18" t="s">
-        <v>188</v>
+        <v>205</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
         <v>36023</v>
       </c>
-      <c r="B19" t="s"/>
-      <c r="C19" t="s"/>
+      <c r="B19" t="n">
+        <v>136143</v>
+      </c>
+      <c r="C19" t="s">
+        <v>206</v>
+      </c>
       <c r="D19" t="n">
         <v>18</v>
       </c>
       <c r="E19" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F19" t="s">
-        <v>189</v>
+        <v>207</v>
       </c>
       <c r="G19" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H19" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I19" t="s">
-        <v>190</v>
+        <v>208</v>
       </c>
       <c r="J19" t="s">
-        <v>191</v>
+        <v>209</v>
       </c>
       <c r="K19" t="s">
-        <v>192</v>
+        <v>210</v>
       </c>
       <c r="L19" t="s">
-        <v>193</v>
+        <v>211</v>
       </c>
       <c r="M19" t="n">
         <v>5</v>
       </c>
       <c r="N19" t="s">
-        <v>156</v>
+        <v>169</v>
       </c>
       <c r="O19" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="P19" t="n">
         <v>5</v>
@@ -2522,56 +2672,60 @@
         <v>0</v>
       </c>
       <c r="W19" t="s">
-        <v>181</v>
+        <v>197</v>
       </c>
       <c r="X19" t="s">
-        <v>182</v>
+        <v>198</v>
       </c>
       <c r="Y19" t="s">
-        <v>194</v>
+        <v>212</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
         <v>36023</v>
       </c>
-      <c r="B20" t="s"/>
-      <c r="C20" t="s"/>
+      <c r="B20" t="n">
+        <v>136144</v>
+      </c>
+      <c r="C20" t="s">
+        <v>213</v>
+      </c>
       <c r="D20" t="n">
         <v>19</v>
       </c>
       <c r="E20" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F20" t="s">
-        <v>195</v>
+        <v>214</v>
       </c>
       <c r="G20" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H20" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I20" t="s">
-        <v>196</v>
+        <v>215</v>
       </c>
       <c r="J20" t="s">
-        <v>197</v>
+        <v>216</v>
       </c>
       <c r="K20" t="s">
-        <v>198</v>
+        <v>217</v>
       </c>
       <c r="L20" t="s">
-        <v>199</v>
+        <v>218</v>
       </c>
       <c r="M20" t="n">
         <v>3</v>
       </c>
       <c r="N20" t="s">
-        <v>156</v>
+        <v>169</v>
       </c>
       <c r="O20" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="P20" t="n">
         <v>3</v>
@@ -2593,56 +2747,60 @@
         <v>0</v>
       </c>
       <c r="W20" t="s">
-        <v>200</v>
+        <v>219</v>
       </c>
       <c r="X20" t="s">
-        <v>201</v>
+        <v>220</v>
       </c>
       <c r="Y20" t="s">
-        <v>202</v>
+        <v>221</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
         <v>36023</v>
       </c>
-      <c r="B21" t="s"/>
-      <c r="C21" t="s"/>
+      <c r="B21" t="n">
+        <v>136145</v>
+      </c>
+      <c r="C21" t="s">
+        <v>222</v>
+      </c>
       <c r="D21" t="n">
         <v>20</v>
       </c>
       <c r="E21" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F21" t="s">
-        <v>203</v>
+        <v>223</v>
       </c>
       <c r="G21" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H21" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I21" t="s">
-        <v>204</v>
+        <v>224</v>
       </c>
       <c r="J21" t="s">
-        <v>205</v>
+        <v>225</v>
       </c>
       <c r="K21" t="s">
-        <v>206</v>
+        <v>226</v>
       </c>
       <c r="L21" t="s">
-        <v>207</v>
+        <v>227</v>
       </c>
       <c r="M21" t="n">
         <v>5</v>
       </c>
       <c r="N21" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="O21" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="P21" t="s"/>
       <c r="Q21" t="s"/>
@@ -2658,56 +2816,60 @@
         <v>0</v>
       </c>
       <c r="W21" t="s">
-        <v>208</v>
+        <v>228</v>
       </c>
       <c r="X21" t="s">
-        <v>209</v>
+        <v>229</v>
       </c>
       <c r="Y21" t="s">
-        <v>210</v>
+        <v>230</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
         <v>36023</v>
       </c>
-      <c r="B22" t="s"/>
-      <c r="C22" t="s"/>
+      <c r="B22" t="n">
+        <v>3572</v>
+      </c>
+      <c r="C22" t="s">
+        <v>231</v>
+      </c>
       <c r="D22" t="n">
         <v>21</v>
       </c>
       <c r="E22" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F22" t="s">
-        <v>211</v>
+        <v>232</v>
       </c>
       <c r="G22" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H22" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I22" t="s">
-        <v>212</v>
+        <v>233</v>
       </c>
       <c r="J22" t="s">
-        <v>213</v>
+        <v>234</v>
       </c>
       <c r="K22" t="s">
-        <v>214</v>
+        <v>235</v>
       </c>
       <c r="L22" t="s">
-        <v>215</v>
+        <v>236</v>
       </c>
       <c r="M22" t="n">
         <v>4</v>
       </c>
       <c r="N22" t="s">
-        <v>216</v>
+        <v>237</v>
       </c>
       <c r="O22" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="P22" t="s"/>
       <c r="Q22" t="s"/>
@@ -2719,56 +2881,60 @@
         <v>0</v>
       </c>
       <c r="W22" t="s">
-        <v>217</v>
+        <v>238</v>
       </c>
       <c r="X22" t="s">
-        <v>218</v>
+        <v>239</v>
       </c>
       <c r="Y22" t="s">
-        <v>219</v>
+        <v>240</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
         <v>36023</v>
       </c>
-      <c r="B23" t="s"/>
-      <c r="C23" t="s"/>
+      <c r="B23" t="n">
+        <v>12608</v>
+      </c>
+      <c r="C23" t="s">
+        <v>241</v>
+      </c>
       <c r="D23" t="n">
         <v>22</v>
       </c>
       <c r="E23" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F23" t="s">
-        <v>220</v>
+        <v>242</v>
       </c>
       <c r="G23" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H23" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I23" t="s">
-        <v>221</v>
+        <v>243</v>
       </c>
       <c r="J23" t="s">
-        <v>222</v>
+        <v>244</v>
       </c>
       <c r="K23" t="s">
-        <v>223</v>
+        <v>245</v>
       </c>
       <c r="L23" t="s">
-        <v>224</v>
+        <v>246</v>
       </c>
       <c r="M23" t="n">
         <v>5</v>
       </c>
       <c r="N23" t="s">
-        <v>225</v>
+        <v>247</v>
       </c>
       <c r="O23" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="P23" t="n">
         <v>5</v>
@@ -2786,56 +2952,60 @@
         <v>0</v>
       </c>
       <c r="W23" t="s">
-        <v>226</v>
+        <v>248</v>
       </c>
       <c r="X23" t="s">
-        <v>227</v>
+        <v>249</v>
       </c>
       <c r="Y23" t="s">
-        <v>228</v>
+        <v>250</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
         <v>36023</v>
       </c>
-      <c r="B24" t="s"/>
-      <c r="C24" t="s"/>
+      <c r="B24" t="n">
+        <v>136146</v>
+      </c>
+      <c r="C24" t="s">
+        <v>251</v>
+      </c>
       <c r="D24" t="n">
         <v>23</v>
       </c>
       <c r="E24" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F24" t="s">
-        <v>229</v>
+        <v>252</v>
       </c>
       <c r="G24" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H24" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I24" t="s">
-        <v>230</v>
+        <v>253</v>
       </c>
       <c r="J24" t="s">
-        <v>222</v>
+        <v>244</v>
       </c>
       <c r="K24" t="s">
-        <v>231</v>
+        <v>254</v>
       </c>
       <c r="L24" t="s">
-        <v>232</v>
+        <v>255</v>
       </c>
       <c r="M24" t="n">
         <v>5</v>
       </c>
       <c r="N24" t="s">
-        <v>233</v>
+        <v>256</v>
       </c>
       <c r="O24" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="P24" t="s"/>
       <c r="Q24" t="s"/>
@@ -2847,56 +3017,60 @@
         <v>0</v>
       </c>
       <c r="W24" t="s">
-        <v>234</v>
+        <v>257</v>
       </c>
       <c r="X24" t="s">
-        <v>235</v>
+        <v>258</v>
       </c>
       <c r="Y24" t="s">
-        <v>236</v>
+        <v>259</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
         <v>36023</v>
       </c>
-      <c r="B25" t="s"/>
-      <c r="C25" t="s"/>
+      <c r="B25" t="n">
+        <v>136147</v>
+      </c>
+      <c r="C25" t="s">
+        <v>260</v>
+      </c>
       <c r="D25" t="n">
         <v>24</v>
       </c>
       <c r="E25" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F25" t="s">
-        <v>237</v>
+        <v>261</v>
       </c>
       <c r="G25" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H25" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I25" t="s">
-        <v>238</v>
+        <v>262</v>
       </c>
       <c r="J25" t="s">
-        <v>239</v>
+        <v>263</v>
       </c>
       <c r="K25" t="s">
-        <v>240</v>
+        <v>264</v>
       </c>
       <c r="L25" t="s">
-        <v>241</v>
+        <v>265</v>
       </c>
       <c r="M25" t="n">
         <v>5</v>
       </c>
       <c r="N25" t="s">
-        <v>225</v>
+        <v>247</v>
       </c>
       <c r="O25" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="P25" t="s"/>
       <c r="Q25" t="n">
@@ -2916,50 +3090,54 @@
       <c r="W25" t="s"/>
       <c r="X25" t="s"/>
       <c r="Y25" t="s">
-        <v>241</v>
+        <v>265</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
         <v>36023</v>
       </c>
-      <c r="B26" t="s"/>
-      <c r="C26" t="s"/>
+      <c r="B26" t="n">
+        <v>136148</v>
+      </c>
+      <c r="C26" t="s">
+        <v>266</v>
+      </c>
       <c r="D26" t="n">
         <v>25</v>
       </c>
       <c r="E26" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F26" t="s">
-        <v>242</v>
+        <v>267</v>
       </c>
       <c r="G26" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H26" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I26" t="s">
-        <v>243</v>
+        <v>268</v>
       </c>
       <c r="J26" t="s">
-        <v>244</v>
+        <v>269</v>
       </c>
       <c r="K26" t="s">
-        <v>245</v>
+        <v>270</v>
       </c>
       <c r="L26" t="s">
-        <v>246</v>
+        <v>271</v>
       </c>
       <c r="M26" t="n">
         <v>4</v>
       </c>
       <c r="N26" t="s">
-        <v>247</v>
+        <v>272</v>
       </c>
       <c r="O26" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="P26" t="s"/>
       <c r="Q26" t="s"/>
@@ -2975,56 +3153,60 @@
         <v>0</v>
       </c>
       <c r="W26" t="s">
-        <v>248</v>
+        <v>273</v>
       </c>
       <c r="X26" t="s">
-        <v>249</v>
+        <v>274</v>
       </c>
       <c r="Y26" t="s">
-        <v>250</v>
+        <v>275</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
         <v>36023</v>
       </c>
-      <c r="B27" t="s"/>
-      <c r="C27" t="s"/>
+      <c r="B27" t="n">
+        <v>136149</v>
+      </c>
+      <c r="C27" t="s">
+        <v>276</v>
+      </c>
       <c r="D27" t="n">
         <v>26</v>
       </c>
       <c r="E27" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F27" t="s">
-        <v>251</v>
+        <v>277</v>
       </c>
       <c r="G27" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H27" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I27" t="s">
-        <v>252</v>
+        <v>278</v>
       </c>
       <c r="J27" t="s">
-        <v>253</v>
+        <v>279</v>
       </c>
       <c r="K27" t="s">
-        <v>254</v>
+        <v>280</v>
       </c>
       <c r="L27" t="s">
-        <v>255</v>
+        <v>281</v>
       </c>
       <c r="M27" t="n">
         <v>5</v>
       </c>
       <c r="N27" t="s">
-        <v>247</v>
+        <v>272</v>
       </c>
       <c r="O27" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="P27" t="s"/>
       <c r="Q27" t="s"/>
@@ -3040,13 +3222,13 @@
         <v>0</v>
       </c>
       <c r="W27" t="s">
-        <v>256</v>
+        <v>282</v>
       </c>
       <c r="X27" t="s">
-        <v>257</v>
+        <v>283</v>
       </c>
       <c r="Y27" t="s">
-        <v>258</v>
+        <v>284</v>
       </c>
     </row>
   </sheetData>

--- a/data/hotels_by_city/Dallas/Dallas_shard_224.xlsx
+++ b/data/hotels_by_city/Dallas/Dallas_shard_224.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="hotel_info" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="review_info" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="hotel_info" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="review_info" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="285">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="292">
   <si>
     <t>STR#</t>
   </si>
@@ -147,21 +147,129 @@
     <t>response_text</t>
   </si>
   <si>
-    <t>Wanda C</t>
+    <t>08/19/2018</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d543081-r595889236-Extended_Stay_America_Dallas_Vantage_Point_Dr-Dallas_Texas.html</t>
+  </si>
+  <si>
+    <t>55711</t>
+  </si>
+  <si>
+    <t>543081</t>
+  </si>
+  <si>
+    <t>595889236</t>
+  </si>
+  <si>
+    <t>07/13/2018</t>
+  </si>
+  <si>
+    <t>Awful experience; clueless staff! Never again!</t>
+  </si>
+  <si>
+    <t>The only good thing about this hotel at this point is that it's in a good location but it has seriously gone down. A simple two night stay was screwed up completely by staff who have no idea what they are doing. Instead of giving me the room under my confirmation and name they gave me the room of another guest and said they could not find me original reservation. I was charged over $50 more because of their inept and unprofessional staff who were too idle deliver basic customer service. I would advise anyone to be careful with your reservations here if you do choose to stay. You will likely end up paying more than quoted on your confirmation.  Furthermore the grounds of this place are filthy, rooms are dusty and show very little signs of a recent renovation. Breakfast consists of a Nature Valley snack bar and a coffee. The staff appearance is undesirable and unprofessional. They should be coached on better customer service, etiquette and dress code as the atmosphere is more becoming of a very low budget motel. I will not stay at another ESA anywhere nor would I recommend them. What I experienced at this hotel was unbelievable.MoreShow less</t>
+  </si>
+  <si>
+    <t>June 2018</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled solo</t>
+  </si>
+  <si>
+    <t>00esa, Manager at Extended Stay America - Dallas - Vantage Point Dr., responded to this reviewResponded July 14, 2018</t>
+  </si>
+  <si>
+    <t>Responded July 14, 2018</t>
+  </si>
+  <si>
+    <t>The only good thing about this hotel at this point is that it's in a good location but it has seriously gone down. A simple two night stay was screwed up completely by staff who have no idea what they are doing. Instead of giving me the room under my confirmation and name they gave me the room of another guest and said they could not find me original reservation. I was charged over $50 more because of their inept and unprofessional staff who were too idle deliver basic customer service. I would advise anyone to be careful with your reservations here if you do choose to stay. You will likely end up paying more than quoted on your confirmation.  Furthermore the grounds of this place are filthy, rooms are dusty and show very little signs of a recent renovation. Breakfast consists of a Nature Valley snack bar and a coffee. The staff appearance is undesirable and unprofessional. They should be coached on better customer service, etiquette and dress code as the atmosphere is more becoming of a very low budget motel. I will not stay at another ESA anywhere nor would I recommend them. What I experienced at this hotel was unbelievable.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d543081-r590205659-Extended_Stay_America_Dallas_Vantage_Point_Dr-Dallas_Texas.html</t>
+  </si>
+  <si>
+    <t>590205659</t>
+  </si>
+  <si>
+    <t>06/24/2018</t>
+  </si>
+  <si>
+    <t>Not a family safe environment</t>
+  </si>
+  <si>
+    <t>“Hotel” is disgusting. Management and corporate are all careless. They will respond and give you a whack sorry asss excuse. They take advantage of their gsrs. STAY AWAY FROM Extended Stay America hotels! Horrible hotel chainMoreShow less</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled with family</t>
+  </si>
+  <si>
+    <t>00esa, Manager at Extended Stay America - Dallas - Vantage Point Dr., responded to this reviewResponded June 24, 2018</t>
+  </si>
+  <si>
+    <t>Responded June 24, 2018</t>
+  </si>
+  <si>
+    <t>“Hotel” is disgusting. Management and corporate are all careless. They will respond and give you a whack sorry asss excuse. They take advantage of their gsrs. STAY AWAY FROM Extended Stay America hotels! Horrible hotel chainMore</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d543081-r589792775-Extended_Stay_America_Dallas_Vantage_Point_Dr-Dallas_Texas.html</t>
+  </si>
+  <si>
+    <t>589792775</t>
+  </si>
+  <si>
+    <t>06/22/2018</t>
+  </si>
+  <si>
+    <t>STAFF COULD CARE LESS IF YOU BOOKED MONTHS AHEAD, WILL GIVE LAST MINUTE BOOKINGS PRIORITY AND GIVE AWAY YOUR ROOM!!</t>
+  </si>
+  <si>
+    <t>TERRIBLE!!!! ATTENTION people, please do your research prior to booking with them unless you want to be disappointed!! Drove here all the way from Georgia with my family including (7 year old and 8 month old baby) and dog only to find out that my room had been given to someone else! NO HEADS UP or nothing! WHAT!? COME ON,  COMMON COURTESY YOU GUYS!!! Staff needs to be trained or FIRED to know better than that! Keep in mind, I had booked this reservation SIX MONTHS IN ADVANCE. AND YOU STILL GIVE MY ROOM AWAY.                                                                           I witnessed this happen to SEVERAL OTHER FAMILIES after me, all leaving through those doors full of disappointment and with the same SAD story. Even after you not having my room, I was STILL CHARGED IN FULL for my reservation! WHAT KIND OF CUSTOMER SERVICE IS THIS?!?!? After a LONG drive all my family wanted was REST but instead, we all had to get back in the car and DRIVE late at night (FOR ANOTHER HOUR) just to find another hotel. HORRIBLE. CORPORATE NEEDS to DO SOMETHING about this before YOU get put out of business!                                                                                              I knew I should have never gave Extended Stay America a try! I cannot believe you made my family go through something DISGUSTING like this!!! Terrible company world wide! In addition, YOU advertise that you are a non smoking hotel but all I see is people smoking everywhere! Disgusting!!...TERRIBLE!!!! ATTENTION people, please do your research prior to booking with them unless you want to be disappointed!! Drove here all the way from Georgia with my family including (7 year old and 8 month old baby) and dog only to find out that my room had been given to someone else! NO HEADS UP or nothing! WHAT!? COME ON,  COMMON COURTESY YOU GUYS!!! Staff needs to be trained or FIRED to know better than that! Keep in mind, I had booked this reservation SIX MONTHS IN ADVANCE. AND YOU STILL GIVE MY ROOM AWAY.                                                                           I witnessed this happen to SEVERAL OTHER FAMILIES after me, all leaving through those doors full of disappointment and with the same SAD story. Even after you not having my room, I was STILL CHARGED IN FULL for my reservation! WHAT KIND OF CUSTOMER SERVICE IS THIS?!?!? After a LONG drive all my family wanted was REST but instead, we all had to get back in the car and DRIVE late at night (FOR ANOTHER HOUR) just to find another hotel. HORRIBLE. CORPORATE NEEDS to DO SOMETHING about this before YOU get put out of business!                                                                                              I knew I should have never gave Extended Stay America a try! I cannot believe you made my family go through something DISGUSTING like this!!! Terrible company world wide! In addition, YOU advertise that you are a non smoking hotel but all I see is people smoking everywhere! Disgusting!! And your staff knows it! I saw them walking past guests smoking, walking in and out their room with a cigarette in hand and not say a word! Sad to say, but even driving past motel 6, it looks way better and SAFER compared to this place you call a hotel. I will NEVER book with this company ever again! You have lost my service and I will make sure to pass the message along to everyone that I know, just how horrible you and this scamming company are! This hotel staff obviously does not care about their guests other wise you would give FIRST PRIORITY to those of us who booked ahead of time. VERY UNFAIR.MoreShow less</t>
+  </si>
+  <si>
+    <t>00esa, Manager at Extended Stay America - Dallas - Vantage Point Dr., responded to this reviewResponded June 23, 2018</t>
+  </si>
+  <si>
+    <t>Responded June 23, 2018</t>
+  </si>
+  <si>
+    <t>TERRIBLE!!!! ATTENTION people, please do your research prior to booking with them unless you want to be disappointed!! Drove here all the way from Georgia with my family including (7 year old and 8 month old baby) and dog only to find out that my room had been given to someone else! NO HEADS UP or nothing! WHAT!? COME ON,  COMMON COURTESY YOU GUYS!!! Staff needs to be trained or FIRED to know better than that! Keep in mind, I had booked this reservation SIX MONTHS IN ADVANCE. AND YOU STILL GIVE MY ROOM AWAY.                                                                           I witnessed this happen to SEVERAL OTHER FAMILIES after me, all leaving through those doors full of disappointment and with the same SAD story. Even after you not having my room, I was STILL CHARGED IN FULL for my reservation! WHAT KIND OF CUSTOMER SERVICE IS THIS?!?!? After a LONG drive all my family wanted was REST but instead, we all had to get back in the car and DRIVE late at night (FOR ANOTHER HOUR) just to find another hotel. HORRIBLE. CORPORATE NEEDS to DO SOMETHING about this before YOU get put out of business!                                                                                              I knew I should have never gave Extended Stay America a try! I cannot believe you made my family go through something DISGUSTING like this!!! Terrible company world wide! In addition, YOU advertise that you are a non smoking hotel but all I see is people smoking everywhere! Disgusting!!...TERRIBLE!!!! ATTENTION people, please do your research prior to booking with them unless you want to be disappointed!! Drove here all the way from Georgia with my family including (7 year old and 8 month old baby) and dog only to find out that my room had been given to someone else! NO HEADS UP or nothing! WHAT!? COME ON,  COMMON COURTESY YOU GUYS!!! Staff needs to be trained or FIRED to know better than that! Keep in mind, I had booked this reservation SIX MONTHS IN ADVANCE. AND YOU STILL GIVE MY ROOM AWAY.                                                                           I witnessed this happen to SEVERAL OTHER FAMILIES after me, all leaving through those doors full of disappointment and with the same SAD story. Even after you not having my room, I was STILL CHARGED IN FULL for my reservation! WHAT KIND OF CUSTOMER SERVICE IS THIS?!?!? After a LONG drive all my family wanted was REST but instead, we all had to get back in the car and DRIVE late at night (FOR ANOTHER HOUR) just to find another hotel. HORRIBLE. CORPORATE NEEDS to DO SOMETHING about this before YOU get put out of business!                                                                                              I knew I should have never gave Extended Stay America a try! I cannot believe you made my family go through something DISGUSTING like this!!! Terrible company world wide! In addition, YOU advertise that you are a non smoking hotel but all I see is people smoking everywhere! Disgusting!! And your staff knows it! I saw them walking past guests smoking, walking in and out their room with a cigarette in hand and not say a word! Sad to say, but even driving past motel 6, it looks way better and SAFER compared to this place you call a hotel. I will NEVER book with this company ever again! You have lost my service and I will make sure to pass the message along to everyone that I know, just how horrible you and this scamming company are! This hotel staff obviously does not care about their guests other wise you would give FIRST PRIORITY to those of us who booked ahead of time. VERY UNFAIR.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d543081-r583781681-Extended_Stay_America_Dallas_Vantage_Point_Dr-Dallas_Texas.html</t>
+  </si>
+  <si>
+    <t>583781681</t>
   </si>
   <si>
     <t>05/29/2018</t>
   </si>
   <si>
+    <t>No Compassion for the Handicapped</t>
+  </si>
+  <si>
+    <t>Which at the end to the Extended Stay America vantage point planning on staying for a month when we arrived we were put it in an upstairs room and requested to be moved downstairs. We were moved into a room that had solid cat hair embedded in the air conditioning. We had to wait two days to get the air conditioning fixed the dishwasher did not work and miscellaneous other things. We have a pitbull service dog and my son is mentally challenged due to a head injury after going in to pay one day the general manager told us that we were not going to be able to stay because he wasn't comfortable around my son my dog and he also stated that we were one day behind on the rent which is impossible it is a hotel and we had paid online each and every day through hotels.com the point was he was just not comfortable with my son and the dog we brought in the paperwork from the bank showing that every day has been paid for and he still made us leave. Corporate and sweet little words on one review board said they were going to investigate it but never did as far as the place is concerned it is nice the new manager was very nice that I had met but the general manager is anMoreShow less</t>
+  </si>
+  <si>
+    <t>April 2018</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled with friends</t>
+  </si>
+  <si>
+    <t>00esa, Manager at Extended Stay America - Dallas - Vantage Point Dr., responded to this reviewResponded May 31, 2018</t>
+  </si>
+  <si>
+    <t>Responded May 31, 2018</t>
+  </si>
+  <si>
+    <t>Which at the end to the Extended Stay America vantage point planning on staying for a month when we arrived we were put it in an upstairs room and requested to be moved downstairs. We were moved into a room that had solid cat hair embedded in the air conditioning. We had to wait two days to get the air conditioning fixed the dishwasher did not work and miscellaneous other things. We have a pitbull service dog and my son is mentally challenged due to a head injury after going in to pay one day the general manager told us that we were not going to be able to stay because he wasn't comfortable around my son my dog and he also stated that we were one day behind on the rent which is impossible it is a hotel and we had paid online each and every day through hotels.com the point was he was just not comfortable with my son and the dog we brought in the paperwork from the bank showing that every day has been paid for and he still made us leave. Corporate and sweet little words on one review board said they were going to investigate it but never did as far as the place is concerned it is nice the new manager was very nice that I had met but the general manager is anMore</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d543081-r574829691-Extended_Stay_America_Dallas_Vantage_Point_Dr-Dallas_Texas.html</t>
   </si>
   <si>
-    <t>55711</t>
-  </si>
-  <si>
-    <t>543081</t>
-  </si>
-  <si>
     <t>574829691</t>
   </si>
   <si>
@@ -174,9 +282,6 @@
     <t>Booked a guaranteed reservation with a pre-payment.  Arrived at the hotel office at 9:15 p.m. which is supposed to be open until 11 p.m. and it was closed.  I called the number on the door and was talked to by a very rude individual.  No room, no refund.  This is the single worst hotel experience I have ever had.MoreShow less</t>
   </si>
   <si>
-    <t>April 2018</t>
-  </si>
-  <si>
     <t xml:space="preserve"> traveled on business</t>
   </si>
   <si>
@@ -189,7 +294,412 @@
     <t>Booked a guaranteed reservation with a pre-payment.  Arrived at the hotel office at 9:15 p.m. which is supposed to be open until 11 p.m. and it was closed.  I called the number on the door and was talked to by a very rude individual.  No room, no refund.  This is the single worst hotel experience I have ever had.More</t>
   </si>
   <si>
-    <t>Stefani Z</t>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d543081-r572305821-Extended_Stay_America_Dallas_Vantage_Point_Dr-Dallas_Texas.html</t>
+  </si>
+  <si>
+    <t>572305821</t>
+  </si>
+  <si>
+    <t>04/09/2018</t>
+  </si>
+  <si>
+    <t>They will sell your room even if it's been paid for</t>
+  </si>
+  <si>
+    <t>Front desk person claimed to have contacted hotels.com to inform them that they were completely full and they would need to relocate me. Well she's a liar because I didn't reserve via hotels.com and they would have informed her right then and there that they had no guest reservation with my name on it. So I show up to check in after attending a funeral viewing with my toddler and newborn and it's freezing outside due to drastic changes in the weather. If she had done her job correctly, I never would have shown up at the property due to being relocated in a timely manner. Mid-range pricing for a budget hotel. My Mom and brother we're actually able to stay at this location that night and there were several issues with the lack of cleanliness, poor quality of bedding, and a lot of suspicious activity on property.MoreShow less</t>
+  </si>
+  <si>
+    <t>00esa, Manager at Extended Stay America - Dallas - Vantage Point Dr., responded to this reviewResponded April 10, 2018</t>
+  </si>
+  <si>
+    <t>Responded April 10, 2018</t>
+  </si>
+  <si>
+    <t>Front desk person claimed to have contacted hotels.com to inform them that they were completely full and they would need to relocate me. Well she's a liar because I didn't reserve via hotels.com and they would have informed her right then and there that they had no guest reservation with my name on it. So I show up to check in after attending a funeral viewing with my toddler and newborn and it's freezing outside due to drastic changes in the weather. If she had done her job correctly, I never would have shown up at the property due to being relocated in a timely manner. Mid-range pricing for a budget hotel. My Mom and brother we're actually able to stay at this location that night and there were several issues with the lack of cleanliness, poor quality of bedding, and a lot of suspicious activity on property.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d543081-r562049463-Extended_Stay_America_Dallas_Vantage_Point_Dr-Dallas_Texas.html</t>
+  </si>
+  <si>
+    <t>562049463</t>
+  </si>
+  <si>
+    <t>02/21/2018</t>
+  </si>
+  <si>
+    <t>Extended Stay America Vantage Point</t>
+  </si>
+  <si>
+    <t>This Dallas hotel is conveniently located but the poor and unprofessional level of service more than cancelled out any advantages of location. Our experience was very grim after requiring moves to three different rooms before finding one where things actually worked. Expect excuses, not results from the staff. This one rates right up (or down) there with Alfred Hitchcock's Bates Motel.MoreShow less</t>
+  </si>
+  <si>
+    <t>February 2018</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled as a couple</t>
+  </si>
+  <si>
+    <t>00esa, Manager at Extended Stay America - Dallas - Vantage Point Dr., responded to this reviewResponded February 22, 2018</t>
+  </si>
+  <si>
+    <t>Responded February 22, 2018</t>
+  </si>
+  <si>
+    <t>This Dallas hotel is conveniently located but the poor and unprofessional level of service more than cancelled out any advantages of location. Our experience was very grim after requiring moves to three different rooms before finding one where things actually worked. Expect excuses, not results from the staff. This one rates right up (or down) there with Alfred Hitchcock's Bates Motel.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d543081-r553302155-Extended_Stay_America_Dallas_Vantage_Point_Dr-Dallas_Texas.html</t>
+  </si>
+  <si>
+    <t>553302155</t>
+  </si>
+  <si>
+    <t>01/11/2018</t>
+  </si>
+  <si>
+    <t>Stolen deposiit</t>
+  </si>
+  <si>
+    <t>Don't do it. Red head manager stole my deposit 2 times. Then bothered any guest I had and never had any grab and go breakfast. Just coffee.This is worst of worst when it comes to fleabag. Manager  being main probMoreShow less</t>
+  </si>
+  <si>
+    <t>November 2017</t>
+  </si>
+  <si>
+    <t>00esa, Manager at Extended Stay America - Dallas - Vantage Point Dr., responded to this reviewResponded January 17, 2018</t>
+  </si>
+  <si>
+    <t>Responded January 17, 2018</t>
+  </si>
+  <si>
+    <t>Don't do it. Red head manager stole my deposit 2 times. Then bothered any guest I had and never had any grab and go breakfast. Just coffee.This is worst of worst when it comes to fleabag. Manager  being main probMore</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d543081-r551208196-Extended_Stay_America_Dallas_Vantage_Point_Dr-Dallas_Texas.html</t>
+  </si>
+  <si>
+    <t>551208196</t>
+  </si>
+  <si>
+    <t>01/03/2018</t>
+  </si>
+  <si>
+    <t>Run</t>
+  </si>
+  <si>
+    <t>Staff very unprofessional. I have never seen anything like it. I was treated poorly and I was lied on several times and told that my voice didn't matter. I felt dehumanized. I wouldn't recommend this place to my worst enemy.MoreShow less</t>
+  </si>
+  <si>
+    <t>December 2017</t>
+  </si>
+  <si>
+    <t>00esa, Manager at Extended Stay America - Dallas - Vantage Point Dr., responded to this reviewResponded January 4, 2018</t>
+  </si>
+  <si>
+    <t>Responded January 4, 2018</t>
+  </si>
+  <si>
+    <t>Staff very unprofessional. I have never seen anything like it. I was treated poorly and I was lied on several times and told that my voice didn't matter. I felt dehumanized. I wouldn't recommend this place to my worst enemy.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d543081-r542461970-Extended_Stay_America_Dallas_Vantage_Point_Dr-Dallas_Texas.html</t>
+  </si>
+  <si>
+    <t>542461970</t>
+  </si>
+  <si>
+    <t>11/21/2017</t>
+  </si>
+  <si>
+    <t>Very courteous staff and manager</t>
+  </si>
+  <si>
+    <t>I stayed for 2 nights and the room was clean and staff was very courteous. I would recommend staying for any length of time. I called for reservation and put my credit card on to hold my room. When I got there, check-in was easy and quick and I was able to get to my room and relax within a short period of time.MoreShow less</t>
+  </si>
+  <si>
+    <t>October 2017</t>
+  </si>
+  <si>
+    <t>00esa, Manager at Extended Stay America - Dallas - Vantage Point Dr., responded to this reviewResponded November 22, 2017</t>
+  </si>
+  <si>
+    <t>Responded November 22, 2017</t>
+  </si>
+  <si>
+    <t>I stayed for 2 nights and the room was clean and staff was very courteous. I would recommend staying for any length of time. I called for reservation and put my credit card on to hold my room. When I got there, check-in was easy and quick and I was able to get to my room and relax within a short period of time.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d543081-r541706630-Extended_Stay_America_Dallas_Vantage_Point_Dr-Dallas_Texas.html</t>
+  </si>
+  <si>
+    <t>541706630</t>
+  </si>
+  <si>
+    <t>11/17/2017</t>
+  </si>
+  <si>
+    <t>Extended Stay America</t>
+  </si>
+  <si>
+    <t>Good experience, value for the money we pay. Hotel staffs are friendly and good place to work or relax. I am staying here for the second time and absolutely happy with the hotel I would recommend this hotel for staying extended periodMoreShow less</t>
+  </si>
+  <si>
+    <t>00esa, Manager at Extended Stay America - Dallas - Vantage Point Dr., responded to this reviewResponded November 18, 2017</t>
+  </si>
+  <si>
+    <t>Responded November 18, 2017</t>
+  </si>
+  <si>
+    <t>Good experience, value for the money we pay. Hotel staffs are friendly and good place to work or relax. I am staying here for the second time and absolutely happy with the hotel I would recommend this hotel for staying extended periodMore</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d543081-r536090910-Extended_Stay_America_Dallas_Vantage_Point_Dr-Dallas_Texas.html</t>
+  </si>
+  <si>
+    <t>536090910</t>
+  </si>
+  <si>
+    <t>10/26/2017</t>
+  </si>
+  <si>
+    <t>THE WORST HOTEL EVER!! DO NOT STAY HERE</t>
+  </si>
+  <si>
+    <t>Extra super DIRTY, the staff is really UNKIND, people at McDonalds treat you better, they ALWAYS have a reason to say NO. Please do not stay here, please don't do it, i stay at hotels more than 170 nights per year, and this is by far the WORS of the WORST. MoreShow less</t>
+  </si>
+  <si>
+    <t>September 2017</t>
+  </si>
+  <si>
+    <t>00esa, Manager at Extended Stay America - Dallas - Vantage Point Dr., responded to this reviewResponded October 26, 2017</t>
+  </si>
+  <si>
+    <t>Responded October 26, 2017</t>
+  </si>
+  <si>
+    <t>Extra super DIRTY, the staff is really UNKIND, people at McDonalds treat you better, they ALWAYS have a reason to say NO. Please do not stay here, please don't do it, i stay at hotels more than 170 nights per year, and this is by far the WORS of the WORST. More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d543081-r535379014-Extended_Stay_America_Dallas_Vantage_Point_Dr-Dallas_Texas.html</t>
+  </si>
+  <si>
+    <t>535379014</t>
+  </si>
+  <si>
+    <t>10/23/2017</t>
+  </si>
+  <si>
+    <t>Horrible staff</t>
+  </si>
+  <si>
+    <t>Very rude staff and receptionist .ciuldnt actuvate our card right twice so we walked back and fourth and racism was in the air . I decided to advise staff I wanted to move to a different location due to all the hassle and non care of her mistakes .due to staff want be going backMoreShow less</t>
+  </si>
+  <si>
+    <t>Very rude staff and receptionist .ciuldnt actuvate our card right twice so we walked back and fourth and racism was in the air . I decided to advise staff I wanted to move to a different location due to all the hassle and non care of her mistakes .due to staff want be going backMore</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d543081-r533589651-Extended_Stay_America_Dallas_Vantage_Point_Dr-Dallas_Texas.html</t>
+  </si>
+  <si>
+    <t>533589651</t>
+  </si>
+  <si>
+    <t>10/16/2017</t>
+  </si>
+  <si>
+    <t>This location needs to be more trained not sure why they didn't have a breakfast like I've had it other Extended Stay Americas they did not have a table in the unit for me to eat in my companion the wifi did not work properly you cannot get the staff member who was training who was alone to properly assist youMoreShow less</t>
+  </si>
+  <si>
+    <t>00esa, Manager at Extended Stay America - Dallas - Vantage Point Dr., responded to this reviewResponded October 17, 2017</t>
+  </si>
+  <si>
+    <t>Responded October 17, 2017</t>
+  </si>
+  <si>
+    <t>This location needs to be more trained not sure why they didn't have a breakfast like I've had it other Extended Stay Americas they did not have a table in the unit for me to eat in my companion the wifi did not work properly you cannot get the staff member who was training who was alone to properly assist youMore</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d543081-r522066714-Extended_Stay_America_Dallas_Vantage_Point_Dr-Dallas_Texas.html</t>
+  </si>
+  <si>
+    <t>522066714</t>
+  </si>
+  <si>
+    <t>09/06/2017</t>
+  </si>
+  <si>
+    <t>Thank you!</t>
+  </si>
+  <si>
+    <t>Tammy and Keisha did a great job in helping me save money. They went an extra mile and put a smile on my face. Very jubilant! This is a comfortable and quiet hotel convenient to restaurant and shopping area. I'd highly recommended this location for your best interested. Very comfortable! :-)MoreShow less</t>
+  </si>
+  <si>
+    <t>00esa, General Manager at Extended Stay America - Dallas - Vantage Point Dr., responded to this reviewResponded September 7, 2017</t>
+  </si>
+  <si>
+    <t>Responded September 7, 2017</t>
+  </si>
+  <si>
+    <t>Tammy and Keisha did a great job in helping me save money. They went an extra mile and put a smile on my face. Very jubilant! This is a comfortable and quiet hotel convenient to restaurant and shopping area. I'd highly recommended this location for your best interested. Very comfortable! :-)More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d543081-r507080437-Extended_Stay_America_Dallas_Vantage_Point_Dr-Dallas_Texas.html</t>
+  </si>
+  <si>
+    <t>507080437</t>
+  </si>
+  <si>
+    <t>07/30/2017</t>
+  </si>
+  <si>
+    <t>Convenient location, but you get what you pay!</t>
+  </si>
+  <si>
+    <t>Can't beat the location, convenient to shopping, restaurants, DART rail. The room was adequate for what you pay. TV, full size refrigerator, cooktop stove, small microwave. Bed was clean and comfortable. Noise level surprisingly tolerable, even on weekends. Weekly room cleaning is sporadic due to staff shortages according to front desk. Biggest complaint: floors very dirty. Feet would be black after walking around a few hours barefoot. Wear socks and wash them regularly!MoreShow less</t>
+  </si>
+  <si>
+    <t>July 2017</t>
+  </si>
+  <si>
+    <t>00esa, General Manager at Extended Stay America - Dallas - Vantage Point Dr., responded to this reviewResponded July 30, 2017</t>
+  </si>
+  <si>
+    <t>Responded July 30, 2017</t>
+  </si>
+  <si>
+    <t>Can't beat the location, convenient to shopping, restaurants, DART rail. The room was adequate for what you pay. TV, full size refrigerator, cooktop stove, small microwave. Bed was clean and comfortable. Noise level surprisingly tolerable, even on weekends. Weekly room cleaning is sporadic due to staff shortages according to front desk. Biggest complaint: floors very dirty. Feet would be black after walking around a few hours barefoot. Wear socks and wash them regularly!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d543081-r505214662-Extended_Stay_America_Dallas_Vantage_Point_Dr-Dallas_Texas.html</t>
+  </si>
+  <si>
+    <t>505214662</t>
+  </si>
+  <si>
+    <t>07/24/2017</t>
+  </si>
+  <si>
+    <t>Rude staff Bugs in rooms</t>
+  </si>
+  <si>
+    <t>Definitely will never stay here again. The staff there are so unprofessional and rude. To make matters work, there were bugs in the room. Just stay away from this hotel. The pictures look decent from the outside but it's totally different when you get inside.MoreShow less</t>
+  </si>
+  <si>
+    <t>00esa, General Manager at Extended Stay America - Dallas - Vantage Point Dr., responded to this reviewResponded July 25, 2017</t>
+  </si>
+  <si>
+    <t>Responded July 25, 2017</t>
+  </si>
+  <si>
+    <t>Definitely will never stay here again. The staff there are so unprofessional and rude. To make matters work, there were bugs in the room. Just stay away from this hotel. The pictures look decent from the outside but it's totally different when you get inside.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d543081-r502089832-Extended_Stay_America_Dallas_Vantage_Point_Dr-Dallas_Texas.html</t>
+  </si>
+  <si>
+    <t>502089832</t>
+  </si>
+  <si>
+    <t>07/14/2017</t>
+  </si>
+  <si>
+    <t>Bad experience</t>
+  </si>
+  <si>
+    <t>Room is not clean as not expected. Ants in rooms no one is came after complaint. Persons are good on desk but I don't know why they are not taking seriously. Cabinet is also not cleaned. Bad is good, Ac is also working only problem is cleaning.MoreShow less</t>
+  </si>
+  <si>
+    <t>00esa, General Manager at Extended Stay America - Dallas - Vantage Point Dr., responded to this reviewResponded July 15, 2017</t>
+  </si>
+  <si>
+    <t>Responded July 15, 2017</t>
+  </si>
+  <si>
+    <t>Room is not clean as not expected. Ants in rooms no one is came after complaint. Persons are good on desk but I don't know why they are not taking seriously. Cabinet is also not cleaned. Bad is good, Ac is also working only problem is cleaning.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d543081-r500401534-Extended_Stay_America_Dallas_Vantage_Point_Dr-Dallas_Texas.html</t>
+  </si>
+  <si>
+    <t>500401534</t>
+  </si>
+  <si>
+    <t>07/10/2017</t>
+  </si>
+  <si>
+    <t>Poor Service</t>
+  </si>
+  <si>
+    <t>We were two families in two rooms.  Our room had a leaky bathroom and dirty bed sheets.  Since I didn't see these things before I unpacked, I decided to stay and just request another bed sheet.  But the other family ended up changing rooms 3 times.  They saw it all... roaches, mice feces... dirty sheets... they gave them a room smaller than the one booked.  We weren't impressed, to say the least.MoreShow less</t>
+  </si>
+  <si>
+    <t>June 2017</t>
+  </si>
+  <si>
+    <t>00esa, General Manager at Extended Stay America - Dallas - Vantage Point Dr., responded to this reviewResponded July 11, 2017</t>
+  </si>
+  <si>
+    <t>Responded July 11, 2017</t>
+  </si>
+  <si>
+    <t>We were two families in two rooms.  Our room had a leaky bathroom and dirty bed sheets.  Since I didn't see these things before I unpacked, I decided to stay and just request another bed sheet.  But the other family ended up changing rooms 3 times.  They saw it all... roaches, mice feces... dirty sheets... they gave them a room smaller than the one booked.  We weren't impressed, to say the least.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d543081-r500255405-Extended_Stay_America_Dallas_Vantage_Point_Dr-Dallas_Texas.html</t>
+  </si>
+  <si>
+    <t>500255405</t>
+  </si>
+  <si>
+    <t>Smelly sleep</t>
+  </si>
+  <si>
+    <t>Mattress was smelling line urine, sheets didn't fit properly! Air conditioning messed up.  Staff was friendly but didn't know the area.   I sadly don't recommend this place.  I won't be back. mama780233@yahoo.comMoreShow less</t>
+  </si>
+  <si>
+    <t>Mattress was smelling line urine, sheets didn't fit properly! Air conditioning messed up.  Staff was friendly but didn't know the area.   I sadly don't recommend this place.  I won't be back. mama780233@yahoo.comMore</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d543081-r500104893-Extended_Stay_America_Dallas_Vantage_Point_Dr-Dallas_Texas.html</t>
+  </si>
+  <si>
+    <t>500104893</t>
+  </si>
+  <si>
+    <t>07/09/2017</t>
+  </si>
+  <si>
+    <t>Comfy experience</t>
+  </si>
+  <si>
+    <t>I needed a new frig and one was swapped out for a new. The staff are approachable and professional everytime I inquired about something.  And the property is kept up and trash  is always picked up never left in bins very long.MoreShow less</t>
+  </si>
+  <si>
+    <t>I needed a new frig and one was swapped out for a new. The staff are approachable and professional everytime I inquired about something.  And the property is kept up and trash  is always picked up never left in bins very long.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d543081-r498441824-Extended_Stay_America_Dallas_Vantage_Point_Dr-Dallas_Texas.html</t>
+  </si>
+  <si>
+    <t>498441824</t>
+  </si>
+  <si>
+    <t>07/03/2017</t>
+  </si>
+  <si>
+    <t>Days at Extended Stay America Vantage Point</t>
+  </si>
+  <si>
+    <t>Okay for value BUT very poor attention to cleanness with staff too aloof. The staff should communicate more without prompting with guests. The location is very good relative to my reason and close to many eateries as well most parts of Dallas.MoreShow less</t>
+  </si>
+  <si>
+    <t>00esa, General Manager at Extended Stay America - Dallas - Vantage Point Dr., responded to this reviewResponded July 4, 2017</t>
+  </si>
+  <si>
+    <t>Responded July 4, 2017</t>
+  </si>
+  <si>
+    <t>Okay for value BUT very poor attention to cleanness with staff too aloof. The staff should communicate more without prompting with guests. The location is very good relative to my reason and close to many eateries as well most parts of Dallas.More</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d543081-r495867351-Extended_Stay_America_Dallas_Vantage_Point_Dr-Dallas_Texas.html</t>
@@ -207,12 +717,6 @@
     <t>Great place to stay even long term. Property has great lighting at night and security patrol. Plenty of areas to walk your pet. Staff is courteous and helpful. Perfect home away from home. Great location.MoreShow less</t>
   </si>
   <si>
-    <t>June 2017</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> traveled solo</t>
-  </si>
-  <si>
     <t>00esa, General Manager at Extended Stay America - Dallas - Vantage Point Dr., responded to this reviewResponded June 25, 2017</t>
   </si>
   <si>
@@ -222,471 +726,6 @@
     <t>Great place to stay even long term. Property has great lighting at night and security patrol. Plenty of areas to walk your pet. Staff is courteous and helpful. Perfect home away from home. Great location.More</t>
   </si>
   <si>
-    <t>Traci C</t>
-  </si>
-  <si>
-    <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d543081-r572305821-Extended_Stay_America_Dallas_Vantage_Point_Dr-Dallas_Texas.html</t>
-  </si>
-  <si>
-    <t>572305821</t>
-  </si>
-  <si>
-    <t>04/09/2018</t>
-  </si>
-  <si>
-    <t>They will sell your room even if it's been paid for</t>
-  </si>
-  <si>
-    <t>Front desk person claimed to have contacted hotels.com to inform them that they were completely full and they would need to relocate me. Well she's a liar because I didn't reserve via hotels.com and they would have informed her right then and there that they had no guest reservation with my name on it. So I show up to check in after attending a funeral viewing with my toddler and newborn and it's freezing outside due to drastic changes in the weather. If she had done her job correctly, I never would have shown up at the property due to being relocated in a timely manner. Mid-range pricing for a budget hotel. My Mom and brother we're actually able to stay at this location that night and there were several issues with the lack of cleanliness, poor quality of bedding, and a lot of suspicious activity on property.MoreShow less</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> traveled with family</t>
-  </si>
-  <si>
-    <t>00esa, Manager at Extended Stay America - Dallas - Vantage Point Dr., responded to this reviewResponded April 10, 2018</t>
-  </si>
-  <si>
-    <t>Responded April 10, 2018</t>
-  </si>
-  <si>
-    <t>Front desk person claimed to have contacted hotels.com to inform them that they were completely full and they would need to relocate me. Well she's a liar because I didn't reserve via hotels.com and they would have informed her right then and there that they had no guest reservation with my name on it. So I show up to check in after attending a funeral viewing with my toddler and newborn and it's freezing outside due to drastic changes in the weather. If she had done her job correctly, I never would have shown up at the property due to being relocated in a timely manner. Mid-range pricing for a budget hotel. My Mom and brother we're actually able to stay at this location that night and there were several issues with the lack of cleanliness, poor quality of bedding, and a lot of suspicious activity on property.More</t>
-  </si>
-  <si>
-    <t>603francisp</t>
-  </si>
-  <si>
-    <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d543081-r562049463-Extended_Stay_America_Dallas_Vantage_Point_Dr-Dallas_Texas.html</t>
-  </si>
-  <si>
-    <t>562049463</t>
-  </si>
-  <si>
-    <t>02/21/2018</t>
-  </si>
-  <si>
-    <t>Extended Stay America Vantage Point</t>
-  </si>
-  <si>
-    <t>This Dallas hotel is conveniently located but the poor and unprofessional level of service more than cancelled out any advantages of location. Our experience was very grim after requiring moves to three different rooms before finding one where things actually worked. Expect excuses, not results from the staff. This one rates right up (or down) there with Alfred Hitchcock's Bates Motel.MoreShow less</t>
-  </si>
-  <si>
-    <t>February 2018</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> traveled as a couple</t>
-  </si>
-  <si>
-    <t>00esa, Manager at Extended Stay America - Dallas - Vantage Point Dr., responded to this reviewResponded February 22, 2018</t>
-  </si>
-  <si>
-    <t>Responded February 22, 2018</t>
-  </si>
-  <si>
-    <t>This Dallas hotel is conveniently located but the poor and unprofessional level of service more than cancelled out any advantages of location. Our experience was very grim after requiring moves to three different rooms before finding one where things actually worked. Expect excuses, not results from the staff. This one rates right up (or down) there with Alfred Hitchcock's Bates Motel.More</t>
-  </si>
-  <si>
-    <t>crystalsX8763WO</t>
-  </si>
-  <si>
-    <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d543081-r553302155-Extended_Stay_America_Dallas_Vantage_Point_Dr-Dallas_Texas.html</t>
-  </si>
-  <si>
-    <t>553302155</t>
-  </si>
-  <si>
-    <t>01/11/2018</t>
-  </si>
-  <si>
-    <t>Stolen deposiit</t>
-  </si>
-  <si>
-    <t>Don't do it. Red head manager stole my deposit 2 times. Then bothered any guest I had and never had any grab and go breakfast. Just coffee.This is worst of worst when it comes to fleabag. Manager  being main probMoreShow less</t>
-  </si>
-  <si>
-    <t>November 2017</t>
-  </si>
-  <si>
-    <t>00esa, Manager at Extended Stay America - Dallas - Vantage Point Dr., responded to this reviewResponded January 17, 2018</t>
-  </si>
-  <si>
-    <t>Responded January 17, 2018</t>
-  </si>
-  <si>
-    <t>Don't do it. Red head manager stole my deposit 2 times. Then bothered any guest I had and never had any grab and go breakfast. Just coffee.This is worst of worst when it comes to fleabag. Manager  being main probMore</t>
-  </si>
-  <si>
-    <t>lashandab2018</t>
-  </si>
-  <si>
-    <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d543081-r551208196-Extended_Stay_America_Dallas_Vantage_Point_Dr-Dallas_Texas.html</t>
-  </si>
-  <si>
-    <t>551208196</t>
-  </si>
-  <si>
-    <t>01/03/2018</t>
-  </si>
-  <si>
-    <t>Run</t>
-  </si>
-  <si>
-    <t>Staff very unprofessional. I have never seen anything like it. I was treated poorly and I was lied on several times and told that my voice didn't matter. I felt dehumanized. I wouldn't recommend this place to my worst enemy.MoreShow less</t>
-  </si>
-  <si>
-    <t>December 2017</t>
-  </si>
-  <si>
-    <t>00esa, Manager at Extended Stay America - Dallas - Vantage Point Dr., responded to this reviewResponded January 4, 2018</t>
-  </si>
-  <si>
-    <t>Responded January 4, 2018</t>
-  </si>
-  <si>
-    <t>Staff very unprofessional. I have never seen anything like it. I was treated poorly and I was lied on several times and told that my voice didn't matter. I felt dehumanized. I wouldn't recommend this place to my worst enemy.More</t>
-  </si>
-  <si>
-    <t>Bobbi S</t>
-  </si>
-  <si>
-    <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d543081-r542461970-Extended_Stay_America_Dallas_Vantage_Point_Dr-Dallas_Texas.html</t>
-  </si>
-  <si>
-    <t>542461970</t>
-  </si>
-  <si>
-    <t>11/21/2017</t>
-  </si>
-  <si>
-    <t>Very courteous staff and manager</t>
-  </si>
-  <si>
-    <t>I stayed for 2 nights and the room was clean and staff was very courteous. I would recommend staying for any length of time. I called for reservation and put my credit card on to hold my room. When I got there, check-in was easy and quick and I was able to get to my room and relax within a short period of time.MoreShow less</t>
-  </si>
-  <si>
-    <t>October 2017</t>
-  </si>
-  <si>
-    <t>00esa, Manager at Extended Stay America - Dallas - Vantage Point Dr., responded to this reviewResponded November 22, 2017</t>
-  </si>
-  <si>
-    <t>Responded November 22, 2017</t>
-  </si>
-  <si>
-    <t>I stayed for 2 nights and the room was clean and staff was very courteous. I would recommend staying for any length of time. I called for reservation and put my credit card on to hold my room. When I got there, check-in was easy and quick and I was able to get to my room and relax within a short period of time.More</t>
-  </si>
-  <si>
-    <t>805vivekd</t>
-  </si>
-  <si>
-    <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d543081-r541706630-Extended_Stay_America_Dallas_Vantage_Point_Dr-Dallas_Texas.html</t>
-  </si>
-  <si>
-    <t>541706630</t>
-  </si>
-  <si>
-    <t>11/17/2017</t>
-  </si>
-  <si>
-    <t>Extended Stay America</t>
-  </si>
-  <si>
-    <t>Good experience, value for the money we pay. Hotel staffs are friendly and good place to work or relax. I am staying here for the second time and absolutely happy with the hotel I would recommend this hotel for staying extended periodMoreShow less</t>
-  </si>
-  <si>
-    <t>00esa, Manager at Extended Stay America - Dallas - Vantage Point Dr., responded to this reviewResponded November 18, 2017</t>
-  </si>
-  <si>
-    <t>Responded November 18, 2017</t>
-  </si>
-  <si>
-    <t>Good experience, value for the money we pay. Hotel staffs are friendly and good place to work or relax. I am staying here for the second time and absolutely happy with the hotel I would recommend this hotel for staying extended periodMore</t>
-  </si>
-  <si>
-    <t>daniela e</t>
-  </si>
-  <si>
-    <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d543081-r536090910-Extended_Stay_America_Dallas_Vantage_Point_Dr-Dallas_Texas.html</t>
-  </si>
-  <si>
-    <t>536090910</t>
-  </si>
-  <si>
-    <t>10/26/2017</t>
-  </si>
-  <si>
-    <t>THE WORST HOTEL EVER!! DO NOT STAY HERE</t>
-  </si>
-  <si>
-    <t>Extra super DIRTY, the staff is really UNKIND, people at McDonalds treat you better, they ALWAYS have a reason to say NO. Please do not stay here, please don't do it, i stay at hotels more than 170 nights per year, and this is by far the WORS of the WORST. MoreShow less</t>
-  </si>
-  <si>
-    <t>September 2017</t>
-  </si>
-  <si>
-    <t>00esa, Manager at Extended Stay America - Dallas - Vantage Point Dr., responded to this reviewResponded October 26, 2017</t>
-  </si>
-  <si>
-    <t>Responded October 26, 2017</t>
-  </si>
-  <si>
-    <t>Extra super DIRTY, the staff is really UNKIND, people at McDonalds treat you better, they ALWAYS have a reason to say NO. Please do not stay here, please don't do it, i stay at hotels more than 170 nights per year, and this is by far the WORS of the WORST. More</t>
-  </si>
-  <si>
-    <t>chelsiaj2017</t>
-  </si>
-  <si>
-    <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d543081-r535379014-Extended_Stay_America_Dallas_Vantage_Point_Dr-Dallas_Texas.html</t>
-  </si>
-  <si>
-    <t>535379014</t>
-  </si>
-  <si>
-    <t>10/23/2017</t>
-  </si>
-  <si>
-    <t>Horrible staff</t>
-  </si>
-  <si>
-    <t>Very rude staff and receptionist .ciuldnt actuvate our card right twice so we walked back and fourth and racism was in the air . I decided to advise staff I wanted to move to a different location due to all the hassle and non care of her mistakes .due to staff want be going backMoreShow less</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> traveled with friends</t>
-  </si>
-  <si>
-    <t>Very rude staff and receptionist .ciuldnt actuvate our card right twice so we walked back and fourth and racism was in the air . I decided to advise staff I wanted to move to a different location due to all the hassle and non care of her mistakes .due to staff want be going backMore</t>
-  </si>
-  <si>
-    <t>rajeanah</t>
-  </si>
-  <si>
-    <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d543081-r533589651-Extended_Stay_America_Dallas_Vantage_Point_Dr-Dallas_Texas.html</t>
-  </si>
-  <si>
-    <t>533589651</t>
-  </si>
-  <si>
-    <t>10/16/2017</t>
-  </si>
-  <si>
-    <t>This location needs to be more trained not sure why they didn't have a breakfast like I've had it other Extended Stay Americas they did not have a table in the unit for me to eat in my companion the wifi did not work properly you cannot get the staff member who was training who was alone to properly assist youMoreShow less</t>
-  </si>
-  <si>
-    <t>00esa, Manager at Extended Stay America - Dallas - Vantage Point Dr., responded to this reviewResponded October 17, 2017</t>
-  </si>
-  <si>
-    <t>Responded October 17, 2017</t>
-  </si>
-  <si>
-    <t>This location needs to be more trained not sure why they didn't have a breakfast like I've had it other Extended Stay Americas they did not have a table in the unit for me to eat in my companion the wifi did not work properly you cannot get the staff member who was training who was alone to properly assist youMore</t>
-  </si>
-  <si>
-    <t>Dollar B</t>
-  </si>
-  <si>
-    <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d543081-r522066714-Extended_Stay_America_Dallas_Vantage_Point_Dr-Dallas_Texas.html</t>
-  </si>
-  <si>
-    <t>522066714</t>
-  </si>
-  <si>
-    <t>09/06/2017</t>
-  </si>
-  <si>
-    <t>Thank you!</t>
-  </si>
-  <si>
-    <t>Tammy and Keisha did a great job in helping me save money. They went an extra mile and put a smile on my face. Very jubilant! This is a comfortable and quiet hotel convenient to restaurant and shopping area. I'd highly recommended this location for your best interested. Very comfortable! :-)MoreShow less</t>
-  </si>
-  <si>
-    <t>00esa, General Manager at Extended Stay America - Dallas - Vantage Point Dr., responded to this reviewResponded September 7, 2017</t>
-  </si>
-  <si>
-    <t>Responded September 7, 2017</t>
-  </si>
-  <si>
-    <t>Tammy and Keisha did a great job in helping me save money. They went an extra mile and put a smile on my face. Very jubilant! This is a comfortable and quiet hotel convenient to restaurant and shopping area. I'd highly recommended this location for your best interested. Very comfortable! :-)More</t>
-  </si>
-  <si>
-    <t>H7321UPbriant</t>
-  </si>
-  <si>
-    <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d543081-r507080437-Extended_Stay_America_Dallas_Vantage_Point_Dr-Dallas_Texas.html</t>
-  </si>
-  <si>
-    <t>507080437</t>
-  </si>
-  <si>
-    <t>07/30/2017</t>
-  </si>
-  <si>
-    <t>Convenient location, but you get what you pay!</t>
-  </si>
-  <si>
-    <t>Can't beat the location, convenient to shopping, restaurants, DART rail. The room was adequate for what you pay. TV, full size refrigerator, cooktop stove, small microwave. Bed was clean and comfortable. Noise level surprisingly tolerable, even on weekends. Weekly room cleaning is sporadic due to staff shortages according to front desk. Biggest complaint: floors very dirty. Feet would be black after walking around a few hours barefoot. Wear socks and wash them regularly!MoreShow less</t>
-  </si>
-  <si>
-    <t>July 2017</t>
-  </si>
-  <si>
-    <t>00esa, General Manager at Extended Stay America - Dallas - Vantage Point Dr., responded to this reviewResponded July 30, 2017</t>
-  </si>
-  <si>
-    <t>Responded July 30, 2017</t>
-  </si>
-  <si>
-    <t>Can't beat the location, convenient to shopping, restaurants, DART rail. The room was adequate for what you pay. TV, full size refrigerator, cooktop stove, small microwave. Bed was clean and comfortable. Noise level surprisingly tolerable, even on weekends. Weekly room cleaning is sporadic due to staff shortages according to front desk. Biggest complaint: floors very dirty. Feet would be black after walking around a few hours barefoot. Wear socks and wash them regularly!More</t>
-  </si>
-  <si>
-    <t>mayta643</t>
-  </si>
-  <si>
-    <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d543081-r505214662-Extended_Stay_America_Dallas_Vantage_Point_Dr-Dallas_Texas.html</t>
-  </si>
-  <si>
-    <t>505214662</t>
-  </si>
-  <si>
-    <t>07/24/2017</t>
-  </si>
-  <si>
-    <t>Rude staff Bugs in rooms</t>
-  </si>
-  <si>
-    <t>Definitely will never stay here again. The staff there are so unprofessional and rude. To make matters work, there were bugs in the room. Just stay away from this hotel. The pictures look decent from the outside but it's totally different when you get inside.MoreShow less</t>
-  </si>
-  <si>
-    <t>00esa, General Manager at Extended Stay America - Dallas - Vantage Point Dr., responded to this reviewResponded July 25, 2017</t>
-  </si>
-  <si>
-    <t>Responded July 25, 2017</t>
-  </si>
-  <si>
-    <t>Definitely will never stay here again. The staff there are so unprofessional and rude. To make matters work, there were bugs in the room. Just stay away from this hotel. The pictures look decent from the outside but it's totally different when you get inside.More</t>
-  </si>
-  <si>
-    <t>75manishkumars</t>
-  </si>
-  <si>
-    <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d543081-r502089832-Extended_Stay_America_Dallas_Vantage_Point_Dr-Dallas_Texas.html</t>
-  </si>
-  <si>
-    <t>502089832</t>
-  </si>
-  <si>
-    <t>07/14/2017</t>
-  </si>
-  <si>
-    <t>Bad experience</t>
-  </si>
-  <si>
-    <t>Room is not clean as not expected. Ants in rooms no one is came after complaint. Persons are good on desk but I don't know why they are not taking seriously. Cabinet is also not cleaned. Bad is good, Ac is also working only problem is cleaning.MoreShow less</t>
-  </si>
-  <si>
-    <t>00esa, General Manager at Extended Stay America - Dallas - Vantage Point Dr., responded to this reviewResponded July 15, 2017</t>
-  </si>
-  <si>
-    <t>Responded July 15, 2017</t>
-  </si>
-  <si>
-    <t>Room is not clean as not expected. Ants in rooms no one is came after complaint. Persons are good on desk but I don't know why they are not taking seriously. Cabinet is also not cleaned. Bad is good, Ac is also working only problem is cleaning.More</t>
-  </si>
-  <si>
-    <t>LYDIA S</t>
-  </si>
-  <si>
-    <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d543081-r500401534-Extended_Stay_America_Dallas_Vantage_Point_Dr-Dallas_Texas.html</t>
-  </si>
-  <si>
-    <t>500401534</t>
-  </si>
-  <si>
-    <t>07/10/2017</t>
-  </si>
-  <si>
-    <t>Poor Service</t>
-  </si>
-  <si>
-    <t>We were two families in two rooms.  Our room had a leaky bathroom and dirty bed sheets.  Since I didn't see these things before I unpacked, I decided to stay and just request another bed sheet.  But the other family ended up changing rooms 3 times.  They saw it all... roaches, mice feces... dirty sheets... they gave them a room smaller than the one booked.  We weren't impressed, to say the least.MoreShow less</t>
-  </si>
-  <si>
-    <t>00esa, General Manager at Extended Stay America - Dallas - Vantage Point Dr., responded to this reviewResponded July 11, 2017</t>
-  </si>
-  <si>
-    <t>Responded July 11, 2017</t>
-  </si>
-  <si>
-    <t>We were two families in two rooms.  Our room had a leaky bathroom and dirty bed sheets.  Since I didn't see these things before I unpacked, I decided to stay and just request another bed sheet.  But the other family ended up changing rooms 3 times.  They saw it all... roaches, mice feces... dirty sheets... they gave them a room smaller than the one booked.  We weren't impressed, to say the least.More</t>
-  </si>
-  <si>
-    <t>341mistyg</t>
-  </si>
-  <si>
-    <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d543081-r500255405-Extended_Stay_America_Dallas_Vantage_Point_Dr-Dallas_Texas.html</t>
-  </si>
-  <si>
-    <t>500255405</t>
-  </si>
-  <si>
-    <t>Smelly sleep</t>
-  </si>
-  <si>
-    <t>Mattress was smelling line urine, sheets didn't fit properly! Air conditioning messed up.  Staff was friendly but didn't know the area.   I sadly don't recommend this place.  I won't be back. mama780233@yahoo.comMoreShow less</t>
-  </si>
-  <si>
-    <t>Mattress was smelling line urine, sheets didn't fit properly! Air conditioning messed up.  Staff was friendly but didn't know the area.   I sadly don't recommend this place.  I won't be back. mama780233@yahoo.comMore</t>
-  </si>
-  <si>
-    <t>francesg382</t>
-  </si>
-  <si>
-    <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d543081-r500104893-Extended_Stay_America_Dallas_Vantage_Point_Dr-Dallas_Texas.html</t>
-  </si>
-  <si>
-    <t>500104893</t>
-  </si>
-  <si>
-    <t>07/09/2017</t>
-  </si>
-  <si>
-    <t>Comfy experience</t>
-  </si>
-  <si>
-    <t>I needed a new frig and one was swapped out for a new. The staff are approachable and professional everytime I inquired about something.  And the property is kept up and trash  is always picked up never left in bins very long.MoreShow less</t>
-  </si>
-  <si>
-    <t>I needed a new frig and one was swapped out for a new. The staff are approachable and professional everytime I inquired about something.  And the property is kept up and trash  is always picked up never left in bins very long.More</t>
-  </si>
-  <si>
-    <t>837emmanuelt</t>
-  </si>
-  <si>
-    <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d543081-r498441824-Extended_Stay_America_Dallas_Vantage_Point_Dr-Dallas_Texas.html</t>
-  </si>
-  <si>
-    <t>498441824</t>
-  </si>
-  <si>
-    <t>07/03/2017</t>
-  </si>
-  <si>
-    <t>Days at Extended Stay America Vantage Point</t>
-  </si>
-  <si>
-    <t>Okay for value BUT very poor attention to cleanness with staff too aloof. The staff should communicate more without prompting with guests. The location is very good relative to my reason and close to many eateries as well most parts of Dallas.MoreShow less</t>
-  </si>
-  <si>
-    <t>00esa, General Manager at Extended Stay America - Dallas - Vantage Point Dr., responded to this reviewResponded July 4, 2017</t>
-  </si>
-  <si>
-    <t>Responded July 4, 2017</t>
-  </si>
-  <si>
-    <t>Okay for value BUT very poor attention to cleanness with staff too aloof. The staff should communicate more without prompting with guests. The location is very good relative to my reason and close to many eateries as well most parts of Dallas.More</t>
-  </si>
-  <si>
-    <t>tgrecofl</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d543081-r493536387-Extended_Stay_America_Dallas_Vantage_Point_Dr-Dallas_Texas.html</t>
   </si>
   <si>
@@ -711,9 +750,6 @@
     <t>If you are looking for a place to stay at a good price and you don't want to rent a car or take Ubers all the time, this hotel is near the LBJ Central train station and you can take the train to many places around the Dallas area.More</t>
   </si>
   <si>
-    <t>Jason S</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d543081-r484756858-Extended_Stay_America_Dallas_Vantage_Point_Dr-Dallas_Texas.html</t>
   </si>
   <si>
@@ -741,9 +777,6 @@
     <t>I enjoyed my stay here EXCEPT one thing.On Friday night I had a unexpected guest enter my room with there key.  It was my EX.  He stopped at the front desk and told the guy that he was me and gave him my room number and told him that he left his key in his room and need a new one.  And without checking ID, or following the company police he issued him a key to my room.  WOW. I am furious so I get that anyone can just walk up to the front and get a key to anyone's room.   BEWAREMore</t>
   </si>
   <si>
-    <t>Alan G</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d543081-r467902478-Extended_Stay_America_Dallas_Vantage_Point_Dr-Dallas_Texas.html</t>
   </si>
   <si>
@@ -771,9 +804,6 @@
     <t>Everyone is very attentive. Concerned that your stay feels like home. Corner suites are large and sunny. Corner suites are large and sunny. Marisa, Bria &amp; Derek very helpful. Housekeeping very meticulous.More</t>
   </si>
   <si>
-    <t>Dottie1973</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d543081-r467824581-Extended_Stay_America_Dallas_Vantage_Point_Dr-Dallas_Texas.html</t>
   </si>
   <si>
@@ -798,9 +828,6 @@
     <t>Marisa and all of the staff at this location are always accommodating and go out of their way to make sure my needs are met. I have been here for quite a while and truly feel like I'm home. The location makes a visit so easy to access any where in Dallas.More</t>
   </si>
   <si>
-    <t>jeremyleake</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d543081-r462979763-Extended_Stay_America_Dallas_Vantage_Point_Dr-Dallas_Texas.html</t>
   </si>
   <si>
@@ -816,9 +843,6 @@
     <t>very nice place to stay and quite. I would come here again and again. staff was great to me and provided anything I asked for . beds were nice and soft and slept like a baby and very much injoy my stay there thank you so much.</t>
   </si>
   <si>
-    <t>373rebeccak</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d543081-r456163571-Extended_Stay_America_Dallas_Vantage_Point_Dr-Dallas_Texas.html</t>
   </si>
   <si>
@@ -844,9 +868,6 @@
   </si>
   <si>
     <t>We were originally booked in the one at 12270 Greenville which is across the street from this one. NEVER will stay there again. Pan handlers in parking lot, homeless looking people entering the lobby every morning helping themselves to ALL the breakfast snacks and coffee meant for the guests. booked a smoking room get there and the hotel is being renovated and converted to non smoking- last night was final straw,,, horrible epoxy like smell filling the hallway and coming into our room on 2nd floor.  Burned eyes, and throat- told to call guest relations ourselves to find another hotel  Not a nice place.  This is right across the street and there is security, no pan handlers, nice place.More</t>
-  </si>
-  <si>
-    <t>Larie L</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d543081-r455208871-Extended_Stay_America_Dallas_Vantage_Point_Dr-Dallas_Texas.html</t>
@@ -1375,420 +1396,360 @@
       <c r="A2" t="n">
         <v>36023</v>
       </c>
-      <c r="B2" t="n">
-        <v>65391</v>
-      </c>
-      <c r="C2" t="s">
+      <c r="B2" t="s"/>
+      <c r="C2" t="s"/>
+      <c r="D2" t="n">
+        <v>1</v>
+      </c>
+      <c r="E2" t="s">
         <v>43</v>
       </c>
-      <c r="D2" t="n">
-        <v>1</v>
-      </c>
-      <c r="E2" t="s">
+      <c r="F2" t="s">
         <v>44</v>
       </c>
-      <c r="F2" t="s">
+      <c r="G2" t="s">
         <v>45</v>
       </c>
-      <c r="G2" t="s">
+      <c r="H2" t="s">
         <v>46</v>
       </c>
-      <c r="H2" t="s">
+      <c r="I2" t="s">
         <v>47</v>
       </c>
-      <c r="I2" t="s">
+      <c r="J2" t="s">
         <v>48</v>
       </c>
-      <c r="J2" t="s">
+      <c r="K2" t="s">
         <v>49</v>
       </c>
-      <c r="K2" t="s">
+      <c r="L2" t="s">
         <v>50</v>
       </c>
-      <c r="L2" t="s">
+      <c r="M2" t="n">
+        <v>1</v>
+      </c>
+      <c r="N2" t="s">
         <v>51</v>
       </c>
-      <c r="M2" t="n">
-        <v>1</v>
-      </c>
-      <c r="N2" t="s">
+      <c r="O2" t="s">
         <v>52</v>
-      </c>
-      <c r="O2" t="s">
-        <v>53</v>
       </c>
       <c r="P2" t="s"/>
       <c r="Q2" t="s"/>
-      <c r="R2" t="s"/>
+      <c r="R2" t="n">
+        <v>5</v>
+      </c>
       <c r="S2" t="s"/>
       <c r="T2" t="s"/>
-      <c r="U2" t="s"/>
+      <c r="U2" t="n">
+        <v>1</v>
+      </c>
       <c r="V2" t="n">
         <v>0</v>
       </c>
       <c r="W2" t="s">
+        <v>53</v>
+      </c>
+      <c r="X2" t="s">
         <v>54</v>
       </c>
-      <c r="X2" t="s">
+      <c r="Y2" t="s">
         <v>55</v>
-      </c>
-      <c r="Y2" t="s">
-        <v>56</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
         <v>36023</v>
       </c>
-      <c r="B3" t="n">
-        <v>136128</v>
-      </c>
-      <c r="C3" t="s">
-        <v>57</v>
-      </c>
+      <c r="B3" t="s"/>
+      <c r="C3" t="s"/>
       <c r="D3" t="n">
         <v>2</v>
       </c>
       <c r="E3" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F3" t="s">
+        <v>56</v>
+      </c>
+      <c r="G3" t="s">
+        <v>45</v>
+      </c>
+      <c r="H3" t="s">
+        <v>46</v>
+      </c>
+      <c r="I3" t="s">
+        <v>57</v>
+      </c>
+      <c r="J3" t="s">
         <v>58</v>
       </c>
-      <c r="G3" t="s">
-        <v>46</v>
-      </c>
-      <c r="H3" t="s">
-        <v>47</v>
-      </c>
-      <c r="I3" t="s">
+      <c r="K3" t="s">
         <v>59</v>
       </c>
-      <c r="J3" t="s">
+      <c r="L3" t="s">
         <v>60</v>
       </c>
-      <c r="K3" t="s">
+      <c r="M3" t="n">
+        <v>1</v>
+      </c>
+      <c r="N3" t="s">
+        <v>51</v>
+      </c>
+      <c r="O3" t="s">
         <v>61</v>
       </c>
-      <c r="L3" t="s">
-        <v>62</v>
-      </c>
-      <c r="M3" t="n">
-        <v>5</v>
-      </c>
-      <c r="N3" t="s">
-        <v>63</v>
-      </c>
-      <c r="O3" t="s">
-        <v>64</v>
-      </c>
-      <c r="P3" t="n">
-        <v>5</v>
-      </c>
-      <c r="Q3" t="n">
-        <v>5</v>
-      </c>
-      <c r="R3" t="n">
-        <v>5</v>
-      </c>
-      <c r="S3" t="n">
-        <v>5</v>
-      </c>
+      <c r="P3" t="s"/>
+      <c r="Q3" t="s"/>
+      <c r="R3" t="s"/>
+      <c r="S3" t="s"/>
       <c r="T3" t="s"/>
-      <c r="U3" t="n">
-        <v>5</v>
-      </c>
+      <c r="U3" t="s"/>
       <c r="V3" t="n">
         <v>0</v>
       </c>
       <c r="W3" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="X3" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="Y3" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
         <v>36023</v>
       </c>
-      <c r="B4" t="n">
-        <v>136129</v>
-      </c>
-      <c r="C4" t="s">
-        <v>68</v>
-      </c>
+      <c r="B4" t="s"/>
+      <c r="C4" t="s"/>
       <c r="D4" t="n">
         <v>3</v>
       </c>
       <c r="E4" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F4" t="s">
+        <v>65</v>
+      </c>
+      <c r="G4" t="s">
+        <v>45</v>
+      </c>
+      <c r="H4" t="s">
+        <v>46</v>
+      </c>
+      <c r="I4" t="s">
+        <v>66</v>
+      </c>
+      <c r="J4" t="s">
+        <v>67</v>
+      </c>
+      <c r="K4" t="s">
+        <v>68</v>
+      </c>
+      <c r="L4" t="s">
         <v>69</v>
       </c>
-      <c r="G4" t="s">
-        <v>46</v>
-      </c>
-      <c r="H4" t="s">
-        <v>47</v>
-      </c>
-      <c r="I4" t="s">
-        <v>70</v>
-      </c>
-      <c r="J4" t="s">
-        <v>71</v>
-      </c>
-      <c r="K4" t="s">
-        <v>72</v>
-      </c>
-      <c r="L4" t="s">
-        <v>73</v>
-      </c>
       <c r="M4" t="n">
         <v>1</v>
       </c>
       <c r="N4" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="O4" t="s">
-        <v>74</v>
+        <v>61</v>
       </c>
       <c r="P4" t="s"/>
-      <c r="Q4" t="n">
-        <v>1</v>
-      </c>
+      <c r="Q4" t="s"/>
       <c r="R4" t="s"/>
-      <c r="S4" t="n">
-        <v>1</v>
-      </c>
+      <c r="S4" t="s"/>
       <c r="T4" t="s"/>
-      <c r="U4" t="n">
-        <v>1</v>
-      </c>
+      <c r="U4" t="s"/>
       <c r="V4" t="n">
         <v>0</v>
       </c>
       <c r="W4" t="s">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="X4" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
       <c r="Y4" t="s">
-        <v>77</v>
+        <v>72</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
         <v>36023</v>
       </c>
-      <c r="B5" t="n">
-        <v>136130</v>
-      </c>
-      <c r="C5" t="s">
-        <v>78</v>
-      </c>
+      <c r="B5" t="s"/>
+      <c r="C5" t="s"/>
       <c r="D5" t="n">
         <v>4</v>
       </c>
       <c r="E5" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F5" t="s">
+        <v>73</v>
+      </c>
+      <c r="G5" t="s">
+        <v>45</v>
+      </c>
+      <c r="H5" t="s">
+        <v>46</v>
+      </c>
+      <c r="I5" t="s">
+        <v>74</v>
+      </c>
+      <c r="J5" t="s">
+        <v>75</v>
+      </c>
+      <c r="K5" t="s">
+        <v>76</v>
+      </c>
+      <c r="L5" t="s">
+        <v>77</v>
+      </c>
+      <c r="M5" t="n">
+        <v>1</v>
+      </c>
+      <c r="N5" t="s">
+        <v>78</v>
+      </c>
+      <c r="O5" t="s">
         <v>79</v>
       </c>
-      <c r="G5" t="s">
-        <v>46</v>
-      </c>
-      <c r="H5" t="s">
-        <v>47</v>
-      </c>
-      <c r="I5" t="s">
-        <v>80</v>
-      </c>
-      <c r="J5" t="s">
-        <v>81</v>
-      </c>
-      <c r="K5" t="s">
-        <v>82</v>
-      </c>
-      <c r="L5" t="s">
-        <v>83</v>
-      </c>
-      <c r="M5" t="n">
-        <v>1</v>
-      </c>
-      <c r="N5" t="s">
-        <v>84</v>
-      </c>
-      <c r="O5" t="s">
-        <v>85</v>
-      </c>
-      <c r="P5" t="n">
-        <v>1</v>
-      </c>
-      <c r="Q5" t="n">
-        <v>3</v>
-      </c>
-      <c r="R5" t="n">
-        <v>3</v>
-      </c>
-      <c r="S5" t="n">
-        <v>2</v>
-      </c>
+      <c r="P5" t="s"/>
+      <c r="Q5" t="s"/>
+      <c r="R5" t="s"/>
+      <c r="S5" t="s"/>
       <c r="T5" t="s"/>
-      <c r="U5" t="n">
-        <v>1</v>
-      </c>
+      <c r="U5" t="s"/>
       <c r="V5" t="n">
         <v>0</v>
       </c>
       <c r="W5" t="s">
-        <v>86</v>
+        <v>80</v>
       </c>
       <c r="X5" t="s">
-        <v>87</v>
+        <v>81</v>
       </c>
       <c r="Y5" t="s">
-        <v>88</v>
+        <v>82</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
         <v>36023</v>
       </c>
-      <c r="B6" t="n">
-        <v>136131</v>
-      </c>
-      <c r="C6" t="s">
-        <v>89</v>
-      </c>
+      <c r="B6" t="s"/>
+      <c r="C6" t="s"/>
       <c r="D6" t="n">
         <v>5</v>
       </c>
       <c r="E6" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F6" t="s">
-        <v>90</v>
+        <v>83</v>
       </c>
       <c r="G6" t="s">
+        <v>45</v>
+      </c>
+      <c r="H6" t="s">
         <v>46</v>
       </c>
-      <c r="H6" t="s">
-        <v>47</v>
-      </c>
       <c r="I6" t="s">
-        <v>91</v>
+        <v>84</v>
       </c>
       <c r="J6" t="s">
-        <v>92</v>
+        <v>85</v>
       </c>
       <c r="K6" t="s">
-        <v>93</v>
+        <v>86</v>
       </c>
       <c r="L6" t="s">
-        <v>94</v>
+        <v>87</v>
       </c>
       <c r="M6" t="n">
         <v>1</v>
       </c>
       <c r="N6" t="s">
-        <v>95</v>
+        <v>78</v>
       </c>
       <c r="O6" t="s">
-        <v>53</v>
-      </c>
-      <c r="P6" t="n">
-        <v>3</v>
-      </c>
-      <c r="Q6" t="n">
-        <v>2</v>
-      </c>
-      <c r="R6" t="n">
-        <v>3</v>
-      </c>
-      <c r="S6" t="n">
-        <v>1</v>
-      </c>
+        <v>88</v>
+      </c>
+      <c r="P6" t="s"/>
+      <c r="Q6" t="s"/>
+      <c r="R6" t="s"/>
+      <c r="S6" t="s"/>
       <c r="T6" t="s"/>
-      <c r="U6" t="n">
-        <v>1</v>
-      </c>
+      <c r="U6" t="s"/>
       <c r="V6" t="n">
         <v>0</v>
       </c>
       <c r="W6" t="s">
-        <v>96</v>
+        <v>89</v>
       </c>
       <c r="X6" t="s">
-        <v>97</v>
+        <v>90</v>
       </c>
       <c r="Y6" t="s">
-        <v>98</v>
+        <v>91</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
         <v>36023</v>
       </c>
-      <c r="B7" t="n">
-        <v>136132</v>
-      </c>
-      <c r="C7" t="s">
-        <v>99</v>
-      </c>
+      <c r="B7" t="s"/>
+      <c r="C7" t="s"/>
       <c r="D7" t="n">
         <v>6</v>
       </c>
       <c r="E7" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F7" t="s">
-        <v>100</v>
+        <v>92</v>
       </c>
       <c r="G7" t="s">
+        <v>45</v>
+      </c>
+      <c r="H7" t="s">
         <v>46</v>
       </c>
-      <c r="H7" t="s">
-        <v>47</v>
-      </c>
       <c r="I7" t="s">
-        <v>101</v>
+        <v>93</v>
       </c>
       <c r="J7" t="s">
-        <v>102</v>
+        <v>94</v>
       </c>
       <c r="K7" t="s">
-        <v>103</v>
+        <v>95</v>
       </c>
       <c r="L7" t="s">
-        <v>104</v>
+        <v>96</v>
       </c>
       <c r="M7" t="n">
         <v>1</v>
       </c>
       <c r="N7" t="s">
-        <v>105</v>
+        <v>78</v>
       </c>
       <c r="O7" t="s">
-        <v>74</v>
-      </c>
-      <c r="P7" t="n">
-        <v>1</v>
-      </c>
+        <v>61</v>
+      </c>
+      <c r="P7" t="s"/>
       <c r="Q7" t="n">
-        <v>3</v>
-      </c>
-      <c r="R7" t="n">
-        <v>3</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="R7" t="s"/>
       <c r="S7" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="T7" t="s"/>
       <c r="U7" t="n">
@@ -1798,875 +1759,831 @@
         <v>0</v>
       </c>
       <c r="W7" t="s">
-        <v>106</v>
+        <v>97</v>
       </c>
       <c r="X7" t="s">
-        <v>107</v>
+        <v>98</v>
       </c>
       <c r="Y7" t="s">
-        <v>108</v>
+        <v>99</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
         <v>36023</v>
       </c>
-      <c r="B8" t="n">
-        <v>18574</v>
-      </c>
-      <c r="C8" t="s">
-        <v>109</v>
-      </c>
+      <c r="B8" t="s"/>
+      <c r="C8" t="s"/>
       <c r="D8" t="n">
         <v>7</v>
       </c>
       <c r="E8" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F8" t="s">
-        <v>110</v>
+        <v>100</v>
       </c>
       <c r="G8" t="s">
+        <v>45</v>
+      </c>
+      <c r="H8" t="s">
         <v>46</v>
       </c>
-      <c r="H8" t="s">
-        <v>47</v>
-      </c>
       <c r="I8" t="s">
-        <v>111</v>
+        <v>101</v>
       </c>
       <c r="J8" t="s">
-        <v>112</v>
+        <v>102</v>
       </c>
       <c r="K8" t="s">
-        <v>113</v>
+        <v>103</v>
       </c>
       <c r="L8" t="s">
-        <v>114</v>
+        <v>104</v>
       </c>
       <c r="M8" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="N8" t="s">
-        <v>115</v>
+        <v>105</v>
       </c>
       <c r="O8" t="s">
-        <v>64</v>
-      </c>
-      <c r="P8" t="s"/>
-      <c r="Q8" t="s"/>
+        <v>106</v>
+      </c>
+      <c r="P8" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q8" t="n">
+        <v>3</v>
+      </c>
       <c r="R8" t="n">
-        <v>4</v>
-      </c>
-      <c r="S8" t="s"/>
+        <v>3</v>
+      </c>
+      <c r="S8" t="n">
+        <v>2</v>
+      </c>
       <c r="T8" t="s"/>
       <c r="U8" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
       </c>
       <c r="W8" t="s">
-        <v>116</v>
+        <v>107</v>
       </c>
       <c r="X8" t="s">
-        <v>117</v>
+        <v>108</v>
       </c>
       <c r="Y8" t="s">
-        <v>118</v>
+        <v>109</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
         <v>36023</v>
       </c>
-      <c r="B9" t="n">
-        <v>136133</v>
-      </c>
-      <c r="C9" t="s">
-        <v>119</v>
-      </c>
+      <c r="B9" t="s"/>
+      <c r="C9" t="s"/>
       <c r="D9" t="n">
         <v>8</v>
       </c>
       <c r="E9" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F9" t="s">
-        <v>120</v>
+        <v>110</v>
       </c>
       <c r="G9" t="s">
+        <v>45</v>
+      </c>
+      <c r="H9" t="s">
         <v>46</v>
       </c>
-      <c r="H9" t="s">
-        <v>47</v>
-      </c>
       <c r="I9" t="s">
-        <v>121</v>
+        <v>111</v>
       </c>
       <c r="J9" t="s">
-        <v>122</v>
+        <v>112</v>
       </c>
       <c r="K9" t="s">
-        <v>123</v>
+        <v>113</v>
       </c>
       <c r="L9" t="s">
-        <v>124</v>
+        <v>114</v>
       </c>
       <c r="M9" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="N9" t="s">
-        <v>95</v>
+        <v>115</v>
       </c>
       <c r="O9" t="s">
-        <v>53</v>
+        <v>88</v>
       </c>
       <c r="P9" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="Q9" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="R9" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="S9" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="T9" t="s"/>
       <c r="U9" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
       </c>
       <c r="W9" t="s">
-        <v>125</v>
+        <v>116</v>
       </c>
       <c r="X9" t="s">
-        <v>126</v>
+        <v>117</v>
       </c>
       <c r="Y9" t="s">
-        <v>127</v>
+        <v>118</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
         <v>36023</v>
       </c>
-      <c r="B10" t="n">
-        <v>136134</v>
-      </c>
-      <c r="C10" t="s">
-        <v>128</v>
-      </c>
+      <c r="B10" t="s"/>
+      <c r="C10" t="s"/>
       <c r="D10" t="n">
         <v>9</v>
       </c>
       <c r="E10" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F10" t="s">
-        <v>129</v>
+        <v>119</v>
       </c>
       <c r="G10" t="s">
+        <v>45</v>
+      </c>
+      <c r="H10" t="s">
         <v>46</v>
       </c>
-      <c r="H10" t="s">
-        <v>47</v>
-      </c>
       <c r="I10" t="s">
-        <v>130</v>
+        <v>120</v>
       </c>
       <c r="J10" t="s">
-        <v>131</v>
+        <v>121</v>
       </c>
       <c r="K10" t="s">
-        <v>132</v>
+        <v>122</v>
       </c>
       <c r="L10" t="s">
-        <v>133</v>
+        <v>123</v>
       </c>
       <c r="M10" t="n">
         <v>1</v>
       </c>
       <c r="N10" t="s">
-        <v>134</v>
+        <v>124</v>
       </c>
       <c r="O10" t="s">
-        <v>53</v>
-      </c>
-      <c r="P10" t="s"/>
-      <c r="Q10" t="s"/>
-      <c r="R10" t="s"/>
-      <c r="S10" t="s"/>
+        <v>61</v>
+      </c>
+      <c r="P10" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q10" t="n">
+        <v>3</v>
+      </c>
+      <c r="R10" t="n">
+        <v>3</v>
+      </c>
+      <c r="S10" t="n">
+        <v>3</v>
+      </c>
       <c r="T10" t="s"/>
-      <c r="U10" t="s"/>
+      <c r="U10" t="n">
+        <v>1</v>
+      </c>
       <c r="V10" t="n">
         <v>0</v>
       </c>
       <c r="W10" t="s">
-        <v>135</v>
+        <v>125</v>
       </c>
       <c r="X10" t="s">
-        <v>136</v>
+        <v>126</v>
       </c>
       <c r="Y10" t="s">
-        <v>137</v>
+        <v>127</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
         <v>36023</v>
       </c>
-      <c r="B11" t="n">
-        <v>136135</v>
-      </c>
-      <c r="C11" t="s">
-        <v>138</v>
-      </c>
+      <c r="B11" t="s"/>
+      <c r="C11" t="s"/>
       <c r="D11" t="n">
         <v>10</v>
       </c>
       <c r="E11" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F11" t="s">
-        <v>139</v>
+        <v>128</v>
       </c>
       <c r="G11" t="s">
+        <v>45</v>
+      </c>
+      <c r="H11" t="s">
         <v>46</v>
       </c>
-      <c r="H11" t="s">
-        <v>47</v>
-      </c>
       <c r="I11" t="s">
-        <v>140</v>
+        <v>129</v>
       </c>
       <c r="J11" t="s">
-        <v>141</v>
+        <v>130</v>
       </c>
       <c r="K11" t="s">
-        <v>142</v>
+        <v>131</v>
       </c>
       <c r="L11" t="s">
-        <v>143</v>
+        <v>132</v>
       </c>
       <c r="M11" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="N11" t="s">
-        <v>115</v>
+        <v>133</v>
       </c>
       <c r="O11" t="s">
-        <v>144</v>
-      </c>
-      <c r="P11" t="n">
-        <v>1</v>
-      </c>
-      <c r="Q11" t="n">
-        <v>1</v>
-      </c>
+        <v>52</v>
+      </c>
+      <c r="P11" t="s"/>
+      <c r="Q11" t="s"/>
       <c r="R11" t="n">
-        <v>1</v>
-      </c>
-      <c r="S11" t="n">
-        <v>1</v>
-      </c>
+        <v>4</v>
+      </c>
+      <c r="S11" t="s"/>
       <c r="T11" t="s"/>
       <c r="U11" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
       </c>
       <c r="W11" t="s">
+        <v>134</v>
+      </c>
+      <c r="X11" t="s">
         <v>135</v>
       </c>
-      <c r="X11" t="s">
+      <c r="Y11" t="s">
         <v>136</v>
-      </c>
-      <c r="Y11" t="s">
-        <v>145</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
         <v>36023</v>
       </c>
-      <c r="B12" t="n">
-        <v>136136</v>
-      </c>
-      <c r="C12" t="s">
-        <v>146</v>
-      </c>
+      <c r="B12" t="s"/>
+      <c r="C12" t="s"/>
       <c r="D12" t="n">
         <v>11</v>
       </c>
       <c r="E12" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F12" t="s">
-        <v>147</v>
+        <v>137</v>
       </c>
       <c r="G12" t="s">
+        <v>45</v>
+      </c>
+      <c r="H12" t="s">
         <v>46</v>
       </c>
-      <c r="H12" t="s">
-        <v>47</v>
-      </c>
       <c r="I12" t="s">
-        <v>148</v>
+        <v>138</v>
       </c>
       <c r="J12" t="s">
-        <v>149</v>
+        <v>139</v>
       </c>
       <c r="K12" t="s">
-        <v>12</v>
+        <v>140</v>
       </c>
       <c r="L12" t="s">
-        <v>150</v>
+        <v>141</v>
       </c>
       <c r="M12" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="N12" t="s">
         <v>115</v>
       </c>
       <c r="O12" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="P12" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="Q12" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="R12" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="S12" t="n">
         <v>5</v>
       </c>
       <c r="T12" t="s"/>
       <c r="U12" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
       </c>
       <c r="W12" t="s">
-        <v>151</v>
+        <v>142</v>
       </c>
       <c r="X12" t="s">
-        <v>152</v>
+        <v>143</v>
       </c>
       <c r="Y12" t="s">
-        <v>153</v>
+        <v>144</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
         <v>36023</v>
       </c>
-      <c r="B13" t="n">
-        <v>136137</v>
-      </c>
-      <c r="C13" t="s">
-        <v>154</v>
-      </c>
+      <c r="B13" t="s"/>
+      <c r="C13" t="s"/>
       <c r="D13" t="n">
         <v>12</v>
       </c>
       <c r="E13" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F13" t="s">
-        <v>155</v>
+        <v>145</v>
       </c>
       <c r="G13" t="s">
+        <v>45</v>
+      </c>
+      <c r="H13" t="s">
         <v>46</v>
       </c>
-      <c r="H13" t="s">
-        <v>47</v>
-      </c>
       <c r="I13" t="s">
-        <v>156</v>
+        <v>146</v>
       </c>
       <c r="J13" t="s">
-        <v>157</v>
+        <v>147</v>
       </c>
       <c r="K13" t="s">
-        <v>158</v>
+        <v>148</v>
       </c>
       <c r="L13" t="s">
-        <v>159</v>
+        <v>149</v>
       </c>
       <c r="M13" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="N13" t="s">
-        <v>134</v>
+        <v>150</v>
       </c>
       <c r="O13" t="s">
-        <v>53</v>
-      </c>
-      <c r="P13" t="n">
-        <v>5</v>
-      </c>
+        <v>88</v>
+      </c>
+      <c r="P13" t="s"/>
       <c r="Q13" t="s"/>
       <c r="R13" t="s"/>
       <c r="S13" t="s"/>
       <c r="T13" t="s"/>
-      <c r="U13" t="n">
-        <v>5</v>
-      </c>
+      <c r="U13" t="s"/>
       <c r="V13" t="n">
         <v>0</v>
       </c>
       <c r="W13" t="s">
-        <v>160</v>
+        <v>151</v>
       </c>
       <c r="X13" t="s">
-        <v>161</v>
+        <v>152</v>
       </c>
       <c r="Y13" t="s">
-        <v>162</v>
+        <v>153</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
         <v>36023</v>
       </c>
-      <c r="B14" t="n">
-        <v>136138</v>
-      </c>
-      <c r="C14" t="s">
-        <v>163</v>
-      </c>
+      <c r="B14" t="s"/>
+      <c r="C14" t="s"/>
       <c r="D14" t="n">
         <v>13</v>
       </c>
       <c r="E14" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F14" t="s">
-        <v>164</v>
+        <v>154</v>
       </c>
       <c r="G14" t="s">
+        <v>45</v>
+      </c>
+      <c r="H14" t="s">
         <v>46</v>
       </c>
-      <c r="H14" t="s">
-        <v>47</v>
-      </c>
       <c r="I14" t="s">
-        <v>165</v>
+        <v>155</v>
       </c>
       <c r="J14" t="s">
-        <v>166</v>
+        <v>156</v>
       </c>
       <c r="K14" t="s">
-        <v>167</v>
+        <v>157</v>
       </c>
       <c r="L14" t="s">
-        <v>168</v>
+        <v>158</v>
       </c>
       <c r="M14" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="N14" t="s">
-        <v>169</v>
+        <v>133</v>
       </c>
       <c r="O14" t="s">
-        <v>53</v>
+        <v>79</v>
       </c>
       <c r="P14" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="Q14" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="R14" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="S14" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="T14" t="s"/>
       <c r="U14" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
       </c>
       <c r="W14" t="s">
-        <v>170</v>
+        <v>151</v>
       </c>
       <c r="X14" t="s">
-        <v>171</v>
+        <v>152</v>
       </c>
       <c r="Y14" t="s">
-        <v>172</v>
+        <v>159</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
         <v>36023</v>
       </c>
-      <c r="B15" t="n">
-        <v>136139</v>
-      </c>
-      <c r="C15" t="s">
-        <v>173</v>
-      </c>
+      <c r="B15" t="s"/>
+      <c r="C15" t="s"/>
       <c r="D15" t="n">
         <v>14</v>
       </c>
       <c r="E15" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F15" t="s">
-        <v>174</v>
+        <v>160</v>
       </c>
       <c r="G15" t="s">
+        <v>45</v>
+      </c>
+      <c r="H15" t="s">
         <v>46</v>
       </c>
-      <c r="H15" t="s">
-        <v>47</v>
-      </c>
       <c r="I15" t="s">
-        <v>175</v>
+        <v>161</v>
       </c>
       <c r="J15" t="s">
-        <v>176</v>
+        <v>162</v>
       </c>
       <c r="K15" t="s">
-        <v>177</v>
+        <v>12</v>
       </c>
       <c r="L15" t="s">
-        <v>178</v>
+        <v>163</v>
       </c>
       <c r="M15" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="N15" t="s">
-        <v>169</v>
+        <v>133</v>
       </c>
       <c r="O15" t="s">
-        <v>53</v>
+        <v>106</v>
       </c>
       <c r="P15" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="Q15" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="R15" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="S15" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="T15" t="s"/>
       <c r="U15" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
       </c>
       <c r="W15" t="s">
-        <v>179</v>
+        <v>164</v>
       </c>
       <c r="X15" t="s">
-        <v>180</v>
+        <v>165</v>
       </c>
       <c r="Y15" t="s">
-        <v>181</v>
+        <v>166</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
         <v>36023</v>
       </c>
-      <c r="B16" t="n">
-        <v>136140</v>
-      </c>
-      <c r="C16" t="s">
-        <v>182</v>
-      </c>
+      <c r="B16" t="s"/>
+      <c r="C16" t="s"/>
       <c r="D16" t="n">
         <v>15</v>
       </c>
       <c r="E16" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F16" t="s">
-        <v>183</v>
+        <v>167</v>
       </c>
       <c r="G16" t="s">
+        <v>45</v>
+      </c>
+      <c r="H16" t="s">
         <v>46</v>
       </c>
-      <c r="H16" t="s">
-        <v>47</v>
-      </c>
       <c r="I16" t="s">
-        <v>184</v>
+        <v>168</v>
       </c>
       <c r="J16" t="s">
-        <v>185</v>
+        <v>169</v>
       </c>
       <c r="K16" t="s">
-        <v>186</v>
+        <v>170</v>
       </c>
       <c r="L16" t="s">
-        <v>187</v>
+        <v>171</v>
       </c>
       <c r="M16" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="N16" t="s">
-        <v>169</v>
+        <v>150</v>
       </c>
       <c r="O16" t="s">
-        <v>74</v>
+        <v>88</v>
       </c>
       <c r="P16" t="n">
-        <v>2</v>
-      </c>
-      <c r="Q16" t="n">
-        <v>2</v>
-      </c>
-      <c r="R16" t="n">
-        <v>4</v>
-      </c>
-      <c r="S16" t="n">
-        <v>2</v>
-      </c>
+        <v>5</v>
+      </c>
+      <c r="Q16" t="s"/>
+      <c r="R16" t="s"/>
+      <c r="S16" t="s"/>
       <c r="T16" t="s"/>
       <c r="U16" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
       </c>
       <c r="W16" t="s">
-        <v>188</v>
+        <v>172</v>
       </c>
       <c r="X16" t="s">
-        <v>189</v>
+        <v>173</v>
       </c>
       <c r="Y16" t="s">
-        <v>190</v>
+        <v>174</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
         <v>36023</v>
       </c>
-      <c r="B17" t="n">
-        <v>136141</v>
-      </c>
-      <c r="C17" t="s">
-        <v>191</v>
-      </c>
+      <c r="B17" t="s"/>
+      <c r="C17" t="s"/>
       <c r="D17" t="n">
         <v>16</v>
       </c>
       <c r="E17" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F17" t="s">
-        <v>192</v>
+        <v>175</v>
       </c>
       <c r="G17" t="s">
+        <v>45</v>
+      </c>
+      <c r="H17" t="s">
         <v>46</v>
       </c>
-      <c r="H17" t="s">
-        <v>47</v>
-      </c>
       <c r="I17" t="s">
-        <v>193</v>
+        <v>176</v>
       </c>
       <c r="J17" t="s">
-        <v>194</v>
+        <v>177</v>
       </c>
       <c r="K17" t="s">
-        <v>195</v>
+        <v>178</v>
       </c>
       <c r="L17" t="s">
-        <v>196</v>
+        <v>179</v>
       </c>
       <c r="M17" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="N17" t="s">
-        <v>63</v>
+        <v>180</v>
       </c>
       <c r="O17" t="s">
-        <v>74</v>
-      </c>
-      <c r="P17" t="s"/>
+        <v>88</v>
+      </c>
+      <c r="P17" t="n">
+        <v>4</v>
+      </c>
       <c r="Q17" t="n">
-        <v>1</v>
-      </c>
-      <c r="R17" t="s"/>
+        <v>3</v>
+      </c>
+      <c r="R17" t="n">
+        <v>4</v>
+      </c>
       <c r="S17" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="T17" t="s"/>
       <c r="U17" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
       </c>
       <c r="W17" t="s">
-        <v>197</v>
+        <v>181</v>
       </c>
       <c r="X17" t="s">
-        <v>198</v>
+        <v>182</v>
       </c>
       <c r="Y17" t="s">
-        <v>199</v>
+        <v>183</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
         <v>36023</v>
       </c>
-      <c r="B18" t="n">
-        <v>136142</v>
-      </c>
-      <c r="C18" t="s">
-        <v>200</v>
-      </c>
+      <c r="B18" t="s"/>
+      <c r="C18" t="s"/>
       <c r="D18" t="n">
         <v>17</v>
       </c>
       <c r="E18" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F18" t="s">
-        <v>201</v>
+        <v>184</v>
       </c>
       <c r="G18" t="s">
+        <v>45</v>
+      </c>
+      <c r="H18" t="s">
         <v>46</v>
       </c>
-      <c r="H18" t="s">
-        <v>47</v>
-      </c>
       <c r="I18" t="s">
-        <v>202</v>
+        <v>185</v>
       </c>
       <c r="J18" t="s">
-        <v>194</v>
+        <v>186</v>
       </c>
       <c r="K18" t="s">
-        <v>203</v>
+        <v>187</v>
       </c>
       <c r="L18" t="s">
-        <v>204</v>
+        <v>188</v>
       </c>
       <c r="M18" t="n">
         <v>1</v>
       </c>
       <c r="N18" t="s">
-        <v>169</v>
+        <v>180</v>
       </c>
       <c r="O18" t="s">
-        <v>74</v>
+        <v>88</v>
       </c>
       <c r="P18" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="Q18" t="n">
         <v>1</v>
       </c>
       <c r="R18" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="S18" t="n">
         <v>1</v>
       </c>
       <c r="T18" t="s"/>
       <c r="U18" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
       </c>
       <c r="W18" t="s">
-        <v>197</v>
+        <v>189</v>
       </c>
       <c r="X18" t="s">
-        <v>198</v>
+        <v>190</v>
       </c>
       <c r="Y18" t="s">
-        <v>205</v>
+        <v>191</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
         <v>36023</v>
       </c>
-      <c r="B19" t="n">
-        <v>136143</v>
-      </c>
-      <c r="C19" t="s">
-        <v>206</v>
-      </c>
+      <c r="B19" t="s"/>
+      <c r="C19" t="s"/>
       <c r="D19" t="n">
         <v>18</v>
       </c>
       <c r="E19" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F19" t="s">
-        <v>207</v>
+        <v>192</v>
       </c>
       <c r="G19" t="s">
+        <v>45</v>
+      </c>
+      <c r="H19" t="s">
         <v>46</v>
       </c>
-      <c r="H19" t="s">
-        <v>47</v>
-      </c>
       <c r="I19" t="s">
-        <v>208</v>
+        <v>193</v>
       </c>
       <c r="J19" t="s">
-        <v>209</v>
+        <v>194</v>
       </c>
       <c r="K19" t="s">
-        <v>210</v>
+        <v>195</v>
       </c>
       <c r="L19" t="s">
-        <v>211</v>
+        <v>196</v>
       </c>
       <c r="M19" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="N19" t="s">
-        <v>169</v>
+        <v>180</v>
       </c>
       <c r="O19" t="s">
-        <v>53</v>
+        <v>61</v>
       </c>
       <c r="P19" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="Q19" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="R19" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="S19" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="T19" t="s"/>
       <c r="U19" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -2678,404 +2595,404 @@
         <v>198</v>
       </c>
       <c r="Y19" t="s">
-        <v>212</v>
+        <v>199</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
         <v>36023</v>
       </c>
-      <c r="B20" t="n">
-        <v>136144</v>
-      </c>
-      <c r="C20" t="s">
-        <v>213</v>
-      </c>
+      <c r="B20" t="s"/>
+      <c r="C20" t="s"/>
       <c r="D20" t="n">
         <v>19</v>
       </c>
       <c r="E20" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F20" t="s">
-        <v>214</v>
+        <v>200</v>
       </c>
       <c r="G20" t="s">
+        <v>45</v>
+      </c>
+      <c r="H20" t="s">
         <v>46</v>
       </c>
-      <c r="H20" t="s">
-        <v>47</v>
-      </c>
       <c r="I20" t="s">
-        <v>215</v>
+        <v>201</v>
       </c>
       <c r="J20" t="s">
-        <v>216</v>
+        <v>202</v>
       </c>
       <c r="K20" t="s">
-        <v>217</v>
+        <v>203</v>
       </c>
       <c r="L20" t="s">
-        <v>218</v>
+        <v>204</v>
       </c>
       <c r="M20" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="N20" t="s">
-        <v>169</v>
+        <v>205</v>
       </c>
       <c r="O20" t="s">
-        <v>74</v>
-      </c>
-      <c r="P20" t="n">
-        <v>3</v>
-      </c>
+        <v>61</v>
+      </c>
+      <c r="P20" t="s"/>
       <c r="Q20" t="n">
-        <v>4</v>
-      </c>
-      <c r="R20" t="n">
-        <v>5</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="R20" t="s"/>
       <c r="S20" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="T20" t="s"/>
       <c r="U20" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
       </c>
       <c r="W20" t="s">
-        <v>219</v>
+        <v>206</v>
       </c>
       <c r="X20" t="s">
-        <v>220</v>
+        <v>207</v>
       </c>
       <c r="Y20" t="s">
-        <v>221</v>
+        <v>208</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
         <v>36023</v>
       </c>
-      <c r="B21" t="n">
-        <v>136145</v>
-      </c>
-      <c r="C21" t="s">
-        <v>222</v>
-      </c>
+      <c r="B21" t="s"/>
+      <c r="C21" t="s"/>
       <c r="D21" t="n">
         <v>20</v>
       </c>
       <c r="E21" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F21" t="s">
-        <v>223</v>
+        <v>209</v>
       </c>
       <c r="G21" t="s">
+        <v>45</v>
+      </c>
+      <c r="H21" t="s">
         <v>46</v>
       </c>
-      <c r="H21" t="s">
-        <v>47</v>
-      </c>
       <c r="I21" t="s">
-        <v>224</v>
+        <v>210</v>
       </c>
       <c r="J21" t="s">
-        <v>225</v>
+        <v>202</v>
       </c>
       <c r="K21" t="s">
-        <v>226</v>
+        <v>211</v>
       </c>
       <c r="L21" t="s">
-        <v>227</v>
+        <v>212</v>
       </c>
       <c r="M21" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="N21" t="s">
-        <v>63</v>
+        <v>180</v>
       </c>
       <c r="O21" t="s">
-        <v>53</v>
-      </c>
-      <c r="P21" t="s"/>
-      <c r="Q21" t="s"/>
-      <c r="R21" t="s"/>
+        <v>61</v>
+      </c>
+      <c r="P21" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q21" t="n">
+        <v>1</v>
+      </c>
+      <c r="R21" t="n">
+        <v>2</v>
+      </c>
       <c r="S21" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="T21" t="s"/>
       <c r="U21" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
       </c>
       <c r="W21" t="s">
-        <v>228</v>
+        <v>206</v>
       </c>
       <c r="X21" t="s">
-        <v>229</v>
+        <v>207</v>
       </c>
       <c r="Y21" t="s">
-        <v>230</v>
+        <v>213</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
         <v>36023</v>
       </c>
-      <c r="B22" t="n">
-        <v>3572</v>
-      </c>
-      <c r="C22" t="s">
-        <v>231</v>
-      </c>
+      <c r="B22" t="s"/>
+      <c r="C22" t="s"/>
       <c r="D22" t="n">
         <v>21</v>
       </c>
       <c r="E22" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F22" t="s">
-        <v>232</v>
+        <v>214</v>
       </c>
       <c r="G22" t="s">
+        <v>45</v>
+      </c>
+      <c r="H22" t="s">
         <v>46</v>
       </c>
-      <c r="H22" t="s">
-        <v>47</v>
-      </c>
       <c r="I22" t="s">
-        <v>233</v>
+        <v>215</v>
       </c>
       <c r="J22" t="s">
-        <v>234</v>
+        <v>216</v>
       </c>
       <c r="K22" t="s">
-        <v>235</v>
+        <v>217</v>
       </c>
       <c r="L22" t="s">
-        <v>236</v>
+        <v>218</v>
       </c>
       <c r="M22" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="N22" t="s">
-        <v>237</v>
+        <v>180</v>
       </c>
       <c r="O22" t="s">
-        <v>53</v>
-      </c>
-      <c r="P22" t="s"/>
-      <c r="Q22" t="s"/>
-      <c r="R22" t="s"/>
-      <c r="S22" t="s"/>
+        <v>88</v>
+      </c>
+      <c r="P22" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q22" t="n">
+        <v>5</v>
+      </c>
+      <c r="R22" t="n">
+        <v>5</v>
+      </c>
+      <c r="S22" t="n">
+        <v>5</v>
+      </c>
       <c r="T22" t="s"/>
-      <c r="U22" t="s"/>
+      <c r="U22" t="n">
+        <v>5</v>
+      </c>
       <c r="V22" t="n">
         <v>0</v>
       </c>
       <c r="W22" t="s">
-        <v>238</v>
+        <v>206</v>
       </c>
       <c r="X22" t="s">
-        <v>239</v>
+        <v>207</v>
       </c>
       <c r="Y22" t="s">
-        <v>240</v>
+        <v>219</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
         <v>36023</v>
       </c>
-      <c r="B23" t="n">
-        <v>12608</v>
-      </c>
-      <c r="C23" t="s">
-        <v>241</v>
-      </c>
+      <c r="B23" t="s"/>
+      <c r="C23" t="s"/>
       <c r="D23" t="n">
         <v>22</v>
       </c>
       <c r="E23" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F23" t="s">
-        <v>242</v>
+        <v>220</v>
       </c>
       <c r="G23" t="s">
+        <v>45</v>
+      </c>
+      <c r="H23" t="s">
         <v>46</v>
       </c>
-      <c r="H23" t="s">
-        <v>47</v>
-      </c>
       <c r="I23" t="s">
-        <v>243</v>
+        <v>221</v>
       </c>
       <c r="J23" t="s">
-        <v>244</v>
+        <v>222</v>
       </c>
       <c r="K23" t="s">
-        <v>245</v>
+        <v>223</v>
       </c>
       <c r="L23" t="s">
-        <v>246</v>
+        <v>224</v>
       </c>
       <c r="M23" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="N23" t="s">
-        <v>247</v>
+        <v>180</v>
       </c>
       <c r="O23" t="s">
-        <v>53</v>
+        <v>61</v>
       </c>
       <c r="P23" t="n">
-        <v>5</v>
-      </c>
-      <c r="Q23" t="s"/>
+        <v>3</v>
+      </c>
+      <c r="Q23" t="n">
+        <v>4</v>
+      </c>
       <c r="R23" t="n">
         <v>5</v>
       </c>
-      <c r="S23" t="s"/>
+      <c r="S23" t="n">
+        <v>2</v>
+      </c>
       <c r="T23" t="s"/>
       <c r="U23" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="V23" t="n">
         <v>0</v>
       </c>
       <c r="W23" t="s">
-        <v>248</v>
+        <v>225</v>
       </c>
       <c r="X23" t="s">
-        <v>249</v>
+        <v>226</v>
       </c>
       <c r="Y23" t="s">
-        <v>250</v>
+        <v>227</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
         <v>36023</v>
       </c>
-      <c r="B24" t="n">
-        <v>136146</v>
-      </c>
-      <c r="C24" t="s">
-        <v>251</v>
-      </c>
+      <c r="B24" t="s"/>
+      <c r="C24" t="s"/>
       <c r="D24" t="n">
         <v>23</v>
       </c>
       <c r="E24" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F24" t="s">
-        <v>252</v>
+        <v>228</v>
       </c>
       <c r="G24" t="s">
+        <v>45</v>
+      </c>
+      <c r="H24" t="s">
         <v>46</v>
       </c>
-      <c r="H24" t="s">
-        <v>47</v>
-      </c>
       <c r="I24" t="s">
-        <v>253</v>
+        <v>229</v>
       </c>
       <c r="J24" t="s">
-        <v>244</v>
+        <v>230</v>
       </c>
       <c r="K24" t="s">
-        <v>254</v>
+        <v>231</v>
       </c>
       <c r="L24" t="s">
-        <v>255</v>
+        <v>232</v>
       </c>
       <c r="M24" t="n">
         <v>5</v>
       </c>
       <c r="N24" t="s">
-        <v>256</v>
+        <v>205</v>
       </c>
       <c r="O24" t="s">
-        <v>64</v>
-      </c>
-      <c r="P24" t="s"/>
-      <c r="Q24" t="s"/>
-      <c r="R24" t="s"/>
-      <c r="S24" t="s"/>
+        <v>52</v>
+      </c>
+      <c r="P24" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q24" t="n">
+        <v>5</v>
+      </c>
+      <c r="R24" t="n">
+        <v>5</v>
+      </c>
+      <c r="S24" t="n">
+        <v>5</v>
+      </c>
       <c r="T24" t="s"/>
-      <c r="U24" t="s"/>
+      <c r="U24" t="n">
+        <v>5</v>
+      </c>
       <c r="V24" t="n">
         <v>0</v>
       </c>
       <c r="W24" t="s">
-        <v>257</v>
+        <v>233</v>
       </c>
       <c r="X24" t="s">
-        <v>258</v>
+        <v>234</v>
       </c>
       <c r="Y24" t="s">
-        <v>259</v>
+        <v>235</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
         <v>36023</v>
       </c>
-      <c r="B25" t="n">
-        <v>136147</v>
-      </c>
-      <c r="C25" t="s">
-        <v>260</v>
-      </c>
+      <c r="B25" t="s"/>
+      <c r="C25" t="s"/>
       <c r="D25" t="n">
         <v>24</v>
       </c>
       <c r="E25" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F25" t="s">
-        <v>261</v>
+        <v>236</v>
       </c>
       <c r="G25" t="s">
+        <v>45</v>
+      </c>
+      <c r="H25" t="s">
         <v>46</v>
       </c>
-      <c r="H25" t="s">
-        <v>47</v>
-      </c>
       <c r="I25" t="s">
-        <v>262</v>
+        <v>237</v>
       </c>
       <c r="J25" t="s">
-        <v>263</v>
+        <v>238</v>
       </c>
       <c r="K25" t="s">
-        <v>264</v>
+        <v>239</v>
       </c>
       <c r="L25" t="s">
-        <v>265</v>
+        <v>240</v>
       </c>
       <c r="M25" t="n">
         <v>5</v>
       </c>
       <c r="N25" t="s">
-        <v>247</v>
+        <v>205</v>
       </c>
       <c r="O25" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="P25" t="s"/>
-      <c r="Q25" t="n">
-        <v>5</v>
-      </c>
+      <c r="Q25" t="s"/>
       <c r="R25" t="s"/>
       <c r="S25" t="n">
         <v>5</v>
@@ -3087,133 +3004,127 @@
       <c r="V25" t="n">
         <v>0</v>
       </c>
-      <c r="W25" t="s"/>
-      <c r="X25" t="s"/>
+      <c r="W25" t="s">
+        <v>241</v>
+      </c>
+      <c r="X25" t="s">
+        <v>242</v>
+      </c>
       <c r="Y25" t="s">
-        <v>265</v>
+        <v>243</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
         <v>36023</v>
       </c>
-      <c r="B26" t="n">
-        <v>136148</v>
-      </c>
-      <c r="C26" t="s">
-        <v>266</v>
-      </c>
+      <c r="B26" t="s"/>
+      <c r="C26" t="s"/>
       <c r="D26" t="n">
         <v>25</v>
       </c>
       <c r="E26" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F26" t="s">
-        <v>267</v>
+        <v>244</v>
       </c>
       <c r="G26" t="s">
+        <v>45</v>
+      </c>
+      <c r="H26" t="s">
         <v>46</v>
       </c>
-      <c r="H26" t="s">
-        <v>47</v>
-      </c>
       <c r="I26" t="s">
-        <v>268</v>
+        <v>245</v>
       </c>
       <c r="J26" t="s">
-        <v>269</v>
+        <v>246</v>
       </c>
       <c r="K26" t="s">
-        <v>270</v>
+        <v>247</v>
       </c>
       <c r="L26" t="s">
-        <v>271</v>
+        <v>248</v>
       </c>
       <c r="M26" t="n">
         <v>4</v>
       </c>
       <c r="N26" t="s">
-        <v>272</v>
+        <v>249</v>
       </c>
       <c r="O26" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="P26" t="s"/>
       <c r="Q26" t="s"/>
-      <c r="R26" t="n">
-        <v>1</v>
-      </c>
+      <c r="R26" t="s"/>
       <c r="S26" t="s"/>
       <c r="T26" t="s"/>
-      <c r="U26" t="n">
-        <v>1</v>
-      </c>
+      <c r="U26" t="s"/>
       <c r="V26" t="n">
         <v>0</v>
       </c>
       <c r="W26" t="s">
-        <v>273</v>
+        <v>250</v>
       </c>
       <c r="X26" t="s">
-        <v>274</v>
+        <v>251</v>
       </c>
       <c r="Y26" t="s">
-        <v>275</v>
+        <v>252</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
         <v>36023</v>
       </c>
-      <c r="B27" t="n">
-        <v>136149</v>
-      </c>
-      <c r="C27" t="s">
-        <v>276</v>
-      </c>
+      <c r="B27" t="s"/>
+      <c r="C27" t="s"/>
       <c r="D27" t="n">
         <v>26</v>
       </c>
       <c r="E27" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F27" t="s">
-        <v>277</v>
+        <v>253</v>
       </c>
       <c r="G27" t="s">
+        <v>45</v>
+      </c>
+      <c r="H27" t="s">
         <v>46</v>
       </c>
-      <c r="H27" t="s">
-        <v>47</v>
-      </c>
       <c r="I27" t="s">
-        <v>278</v>
+        <v>254</v>
       </c>
       <c r="J27" t="s">
-        <v>279</v>
+        <v>255</v>
       </c>
       <c r="K27" t="s">
-        <v>280</v>
+        <v>256</v>
       </c>
       <c r="L27" t="s">
-        <v>281</v>
+        <v>257</v>
       </c>
       <c r="M27" t="n">
         <v>5</v>
       </c>
       <c r="N27" t="s">
-        <v>272</v>
+        <v>258</v>
       </c>
       <c r="O27" t="s">
-        <v>53</v>
-      </c>
-      <c r="P27" t="s"/>
+        <v>88</v>
+      </c>
+      <c r="P27" t="n">
+        <v>5</v>
+      </c>
       <c r="Q27" t="s"/>
-      <c r="R27" t="s"/>
-      <c r="S27" t="n">
-        <v>5</v>
-      </c>
+      <c r="R27" t="n">
+        <v>5</v>
+      </c>
+      <c r="S27" t="s"/>
       <c r="T27" t="s"/>
       <c r="U27" t="n">
         <v>5</v>
@@ -3222,13 +3133,267 @@
         <v>0</v>
       </c>
       <c r="W27" t="s">
+        <v>259</v>
+      </c>
+      <c r="X27" t="s">
+        <v>260</v>
+      </c>
+      <c r="Y27" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="n">
+        <v>36023</v>
+      </c>
+      <c r="B28" t="s"/>
+      <c r="C28" t="s"/>
+      <c r="D28" t="n">
+        <v>27</v>
+      </c>
+      <c r="E28" t="s">
+        <v>43</v>
+      </c>
+      <c r="F28" t="s">
+        <v>262</v>
+      </c>
+      <c r="G28" t="s">
+        <v>45</v>
+      </c>
+      <c r="H28" t="s">
+        <v>46</v>
+      </c>
+      <c r="I28" t="s">
+        <v>263</v>
+      </c>
+      <c r="J28" t="s">
+        <v>255</v>
+      </c>
+      <c r="K28" t="s">
+        <v>264</v>
+      </c>
+      <c r="L28" t="s">
+        <v>265</v>
+      </c>
+      <c r="M28" t="n">
+        <v>5</v>
+      </c>
+      <c r="N28" t="s">
+        <v>266</v>
+      </c>
+      <c r="O28" t="s">
+        <v>52</v>
+      </c>
+      <c r="P28" t="s"/>
+      <c r="Q28" t="s"/>
+      <c r="R28" t="s"/>
+      <c r="S28" t="s"/>
+      <c r="T28" t="s"/>
+      <c r="U28" t="s"/>
+      <c r="V28" t="n">
+        <v>0</v>
+      </c>
+      <c r="W28" t="s">
+        <v>267</v>
+      </c>
+      <c r="X28" t="s">
+        <v>268</v>
+      </c>
+      <c r="Y28" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="n">
+        <v>36023</v>
+      </c>
+      <c r="B29" t="s"/>
+      <c r="C29" t="s"/>
+      <c r="D29" t="n">
+        <v>28</v>
+      </c>
+      <c r="E29" t="s">
+        <v>43</v>
+      </c>
+      <c r="F29" t="s">
+        <v>270</v>
+      </c>
+      <c r="G29" t="s">
+        <v>45</v>
+      </c>
+      <c r="H29" t="s">
+        <v>46</v>
+      </c>
+      <c r="I29" t="s">
+        <v>271</v>
+      </c>
+      <c r="J29" t="s">
+        <v>272</v>
+      </c>
+      <c r="K29" t="s">
+        <v>273</v>
+      </c>
+      <c r="L29" t="s">
+        <v>274</v>
+      </c>
+      <c r="M29" t="n">
+        <v>5</v>
+      </c>
+      <c r="N29" t="s">
+        <v>258</v>
+      </c>
+      <c r="O29" t="s">
+        <v>106</v>
+      </c>
+      <c r="P29" t="s"/>
+      <c r="Q29" t="n">
+        <v>5</v>
+      </c>
+      <c r="R29" t="s"/>
+      <c r="S29" t="n">
+        <v>5</v>
+      </c>
+      <c r="T29" t="s"/>
+      <c r="U29" t="n">
+        <v>5</v>
+      </c>
+      <c r="V29" t="n">
+        <v>0</v>
+      </c>
+      <c r="W29" t="s"/>
+      <c r="X29" t="s"/>
+      <c r="Y29" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="n">
+        <v>36023</v>
+      </c>
+      <c r="B30" t="s"/>
+      <c r="C30" t="s"/>
+      <c r="D30" t="n">
+        <v>29</v>
+      </c>
+      <c r="E30" t="s">
+        <v>43</v>
+      </c>
+      <c r="F30" t="s">
+        <v>275</v>
+      </c>
+      <c r="G30" t="s">
+        <v>45</v>
+      </c>
+      <c r="H30" t="s">
+        <v>46</v>
+      </c>
+      <c r="I30" t="s">
+        <v>276</v>
+      </c>
+      <c r="J30" t="s">
+        <v>277</v>
+      </c>
+      <c r="K30" t="s">
+        <v>278</v>
+      </c>
+      <c r="L30" t="s">
+        <v>279</v>
+      </c>
+      <c r="M30" t="n">
+        <v>4</v>
+      </c>
+      <c r="N30" t="s">
+        <v>280</v>
+      </c>
+      <c r="O30" t="s">
+        <v>106</v>
+      </c>
+      <c r="P30" t="s"/>
+      <c r="Q30" t="s"/>
+      <c r="R30" t="n">
+        <v>1</v>
+      </c>
+      <c r="S30" t="s"/>
+      <c r="T30" t="s"/>
+      <c r="U30" t="n">
+        <v>1</v>
+      </c>
+      <c r="V30" t="n">
+        <v>0</v>
+      </c>
+      <c r="W30" t="s">
+        <v>281</v>
+      </c>
+      <c r="X30" t="s">
         <v>282</v>
       </c>
-      <c r="X27" t="s">
+      <c r="Y30" t="s">
         <v>283</v>
       </c>
-      <c r="Y27" t="s">
+    </row>
+    <row r="31">
+      <c r="A31" t="n">
+        <v>36023</v>
+      </c>
+      <c r="B31" t="s"/>
+      <c r="C31" t="s"/>
+      <c r="D31" t="n">
+        <v>30</v>
+      </c>
+      <c r="E31" t="s">
+        <v>43</v>
+      </c>
+      <c r="F31" t="s">
         <v>284</v>
+      </c>
+      <c r="G31" t="s">
+        <v>45</v>
+      </c>
+      <c r="H31" t="s">
+        <v>46</v>
+      </c>
+      <c r="I31" t="s">
+        <v>285</v>
+      </c>
+      <c r="J31" t="s">
+        <v>286</v>
+      </c>
+      <c r="K31" t="s">
+        <v>287</v>
+      </c>
+      <c r="L31" t="s">
+        <v>288</v>
+      </c>
+      <c r="M31" t="n">
+        <v>5</v>
+      </c>
+      <c r="N31" t="s">
+        <v>280</v>
+      </c>
+      <c r="O31" t="s">
+        <v>88</v>
+      </c>
+      <c r="P31" t="s"/>
+      <c r="Q31" t="s"/>
+      <c r="R31" t="s"/>
+      <c r="S31" t="n">
+        <v>5</v>
+      </c>
+      <c r="T31" t="s"/>
+      <c r="U31" t="n">
+        <v>5</v>
+      </c>
+      <c r="V31" t="n">
+        <v>0</v>
+      </c>
+      <c r="W31" t="s">
+        <v>289</v>
+      </c>
+      <c r="X31" t="s">
+        <v>290</v>
+      </c>
+      <c r="Y31" t="s">
+        <v>291</v>
       </c>
     </row>
   </sheetData>
